--- a/sample_bookings.xlsx
+++ b/sample_bookings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B3A12-D674-C24B-B9BB-B8B962521994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B64A20-D5BD-E84A-9850-15AC69B811BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Glossary" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Sept'!$A$1:$AZ$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Sept'!$A$1:$BA$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'25 agosto'!$A$1:$AW$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$1:$X$42</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="471">
   <si>
     <t>Property Internal Name</t>
   </si>
@@ -1422,6 +1422,39 @@
   </si>
   <si>
     <t>CHECK-OUT HORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya </t>
+  </si>
+  <si>
+    <t>Greendelf</t>
+  </si>
+  <si>
+    <t>NUMBER GUESTS</t>
+  </si>
+  <si>
+    <t>2 carros</t>
+  </si>
+  <si>
+    <t>1 carro</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Chacon</t>
+  </si>
+  <si>
+    <t>ighh</t>
+  </si>
+  <si>
+    <t>TRANSPORTE CHECK-IN</t>
+  </si>
+  <si>
+    <t>TRANSPORTE CHECK-OUT</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -1430,9 +1463,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;B/.&quot;* #,##0.00_-;\-&quot;B/.&quot;* #,##0.00_-;_-&quot;B/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1469,8 +1502,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1499,6 +1539,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94DCF8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1592,7 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1607,8 +1653,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1624,12 +1668,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,20 +1678,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1992,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}">
-  <dimension ref="A1:AZ44"/>
+  <dimension ref="A1:BA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="AV1" sqref="AV1:AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2011,13 +2053,14 @@
     <col min="13" max="13" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="20" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="39" width="0" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="21.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="0" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="16" style="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,8 +2175,8 @@
       <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14" t="s">
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12" t="s">
         <v>345</v>
       </c>
       <c r="AO1" s="2" t="s">
@@ -2142,14 +2185,14 @@
       <c r="AP1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="17" t="s">
         <v>459</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="AT1" s="3" t="s">
         <v>400</v>
@@ -2158,838 +2201,851 @@
         <v>401</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="AW1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="AZ1" s="25" t="s">
+      <c r="BA1" s="21" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="K2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="27">
-        <v>0</v>
-      </c>
-      <c r="P2" s="27" t="s">
+      <c r="O2" s="23">
+        <v>0</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="24">
         <v>45841</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="24">
         <v>45901</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="24">
         <v>45907</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="27">
-        <v>0</v>
-      </c>
-      <c r="W2" s="27" t="s">
+      <c r="V2" s="23">
+        <v>0</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="27">
+      <c r="X2" s="23">
         <v>25</v>
       </c>
-      <c r="Y2" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="27">
+      <c r="Y2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23">
         <v>-71.25</v>
       </c>
-      <c r="AC2" s="27">
+      <c r="AC2" s="23">
         <v>450</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="23">
         <v>403.75</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="AE2" s="23">
         <v>403.75</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AF2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AG2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="27" t="s">
+      <c r="AJ2" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AK2" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="AL2" s="27" t="s">
+      <c r="AL2" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="AN2" s="27" t="s">
+      <c r="AN2" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="AO2" s="27" t="s">
+      <c r="AO2" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AP2" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AQ2" s="34">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="29">
+      <c r="AQ2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AT2" s="27" t="s">
+      <c r="AT2" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="AU2" s="27" t="s">
+      <c r="AU2" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="AY2" s="27" t="s">
+      <c r="AZ2" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="AZ2" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="BA2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="32" t="s">
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="31">
-        <v>0</v>
-      </c>
-      <c r="P3" s="32" t="s">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="6">
         <v>45877</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="6">
         <v>45901</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="6">
         <v>45902</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="31">
-        <v>0</v>
-      </c>
-      <c r="W3" s="31" t="s">
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3">
         <v>35</v>
       </c>
-      <c r="Y3" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="31">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>-32.25</v>
       </c>
-      <c r="AC3" s="31">
+      <c r="AC3">
         <v>180</v>
       </c>
-      <c r="AD3" s="32">
+      <c r="AD3" s="5">
         <v>182.75</v>
       </c>
-      <c r="AE3" s="31">
+      <c r="AE3">
         <v>182.75</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AF3" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="31" t="s">
+      <c r="AG3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" t="s">
         <v>51</v>
       </c>
-      <c r="AI3" s="31" t="s">
+      <c r="AI3" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="31" t="s">
+      <c r="AJ3" t="s">
         <v>53</v>
       </c>
-      <c r="AK3" s="31" t="s">
+      <c r="AK3" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" s="31" t="s">
+      <c r="AL3" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="32" t="s">
+      <c r="AN3" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="AO3" s="32" t="s">
+      <c r="AO3" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AP3" s="32" t="s">
+      <c r="AP3" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AQ3" s="34">
+      <c r="AQ3" s="19">
         <v>0.625</v>
       </c>
-      <c r="AR3" s="34">
+      <c r="AR3" s="19">
         <v>0.5625</v>
       </c>
-      <c r="AS3" s="32">
+      <c r="AS3" s="5">
         <v>8</v>
       </c>
-      <c r="AT3" s="32" t="s">
+      <c r="AT3" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="AU3" s="32" t="s">
+      <c r="AU3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32" t="s">
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="AZ3" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" s="39" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="BA3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="36" t="s">
+      <c r="K4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="36">
-        <v>0</v>
-      </c>
-      <c r="P4" s="36" t="s">
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="28">
         <v>45900</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="28">
         <v>45901</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="28">
         <v>45902</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="U4" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="36">
-        <v>0</v>
-      </c>
-      <c r="W4" s="36" t="s">
+      <c r="U4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="27">
         <v>30</v>
       </c>
-      <c r="Y4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="36">
+      <c r="Y4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27">
         <v>-19.14</v>
       </c>
-      <c r="AC4" s="36">
+      <c r="AC4" s="27">
         <v>97.6</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AD4" s="27">
         <v>108.46</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AE4" s="27">
         <v>108.46</v>
       </c>
-      <c r="AF4" s="36" t="s">
+      <c r="AF4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AG4" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="36" t="s">
+      <c r="AG4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="36" t="s">
+      <c r="AI4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="36" t="s">
+      <c r="AJ4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AK4" s="36" t="s">
+      <c r="AK4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" s="36" t="s">
+      <c r="AL4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="38" t="s">
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="AO4" s="38" t="s">
+      <c r="AO4" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="AP4" s="38" t="s">
+      <c r="AP4" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+    </row>
+    <row r="5" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="33">
         <v>45769</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="33">
         <v>45902</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="33">
         <v>45904</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="U5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="U5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0</v>
+      </c>
+      <c r="W5" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="32">
         <v>25</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="Y5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="32">
         <v>226.8</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="31">
         <v>274.48</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
+      <c r="AE5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="32">
         <v>274.48</v>
       </c>
-      <c r="AG5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AG5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="21">
+      <c r="AO5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="35">
         <v>0.60416666666666663</v>
       </c>
-      <c r="AR5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="5">
+      <c r="AR5" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="AS5" s="31">
         <v>3</v>
       </c>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5" t="s">
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="31"/>
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="31"/>
+      <c r="AZ5" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="31" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="K6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="33">
         <v>45883</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="33">
         <v>45902</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="33">
         <v>45908</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="U6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="U6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0</v>
+      </c>
+      <c r="W6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="32">
         <v>25</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="Y6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="32">
         <v>-117.15</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="32">
         <v>756</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="31">
         <v>663.85</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="32">
         <v>663.85</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AG6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AO6" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="AQ6" s="21">
+      <c r="AQ6" s="35">
         <v>0.625</v>
       </c>
-      <c r="AR6" s="21">
+      <c r="AR6" s="35">
         <v>0.5</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AS6" s="31">
         <v>2</v>
       </c>
-      <c r="AT6" s="5" t="s">
+      <c r="AT6" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5" t="s">
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="31"/>
+      <c r="AZ6" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="AZ6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="BA6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="K7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O7" s="29">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="36">
         <v>45901</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="36">
         <v>45902</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="36">
         <v>45904</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="U7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="U7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="29">
+        <v>0</v>
+      </c>
+      <c r="W7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="29">
         <v>35</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
+      <c r="Y7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="29">
         <v>-42.75</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="29">
         <v>250</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="29">
         <v>242.25</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="29">
         <v>242.25</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AG7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AG7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AY7" t="s">
+      <c r="AO7" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP7" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AY7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ7" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="AZ7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3101,16 +3157,16 @@
       <c r="AN8" t="s">
         <v>402</v>
       </c>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AY8" t="s">
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AZ8" t="s">
         <v>363</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -3222,23 +3278,26 @@
       <c r="AN9" t="s">
         <v>402</v>
       </c>
-      <c r="AQ9" s="23">
+      <c r="AQ9" s="19">
         <v>0.85</v>
       </c>
-      <c r="AR9" s="23">
+      <c r="AR9" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AV9" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="AY9" t="s">
+      <c r="AV9" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW9" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -3359,10 +3418,10 @@
       <c r="AP10" s="5">
         <v>0</v>
       </c>
-      <c r="AQ10" s="11">
+      <c r="AQ10" s="19">
         <v>0.625</v>
       </c>
-      <c r="AR10" s="11">
+      <c r="AR10" s="19">
         <v>0.5</v>
       </c>
       <c r="AS10" s="5">
@@ -3377,20 +3436,21 @@
       <c r="AV10" s="5">
         <v>0</v>
       </c>
-      <c r="AW10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="24">
-        <v>2</v>
-      </c>
-      <c r="AY10" s="5" t="s">
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="AZ10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -3505,16 +3565,22 @@
       <c r="AN11" t="s">
         <v>402</v>
       </c>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AY11" t="s">
+      <c r="AO11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AZ11" t="s">
         <v>366</v>
       </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>150</v>
       </c>
@@ -3632,10 +3698,10 @@
       <c r="AP12" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AQ12" s="21">
+      <c r="AQ12" s="19">
         <v>0.75</v>
       </c>
-      <c r="AR12" s="21">
+      <c r="AR12" s="19">
         <v>0.5</v>
       </c>
       <c r="AS12" s="5">
@@ -3650,18 +3716,19 @@
       <c r="AV12" s="5">
         <v>0</v>
       </c>
-      <c r="AW12" s="5" t="s">
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5" t="s">
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="AZ12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -3779,10 +3846,10 @@
       <c r="AP13" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AQ13" s="21">
+      <c r="AQ13" s="19">
         <v>0.65625</v>
       </c>
-      <c r="AR13" s="21">
+      <c r="AR13" s="19">
         <v>0.29166666666666669</v>
       </c>
       <c r="AS13" s="5">
@@ -3794,21 +3861,24 @@
       <c r="AU13" s="5">
         <v>0</v>
       </c>
-      <c r="AV13" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="AW13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5" t="s">
+      <c r="AV13" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW13" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="AZ13" s="5" t="s">
+      <c r="BA13" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3923,16 +3993,16 @@
       <c r="AN14" t="s">
         <v>402</v>
       </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
+      <c r="AO14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="19">
         <v>0</v>
       </c>
       <c r="AS14">
@@ -3947,17 +4017,17 @@
       <c r="AV14">
         <v>0</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="s">
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>369</v>
       </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4075,10 +4145,10 @@
       <c r="AP15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AQ15" t="e">
+      <c r="AQ15" s="19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AR15" t="e">
+      <c r="AR15" s="19" t="e">
         <v>#N/A</v>
       </c>
       <c r="AS15" t="e">
@@ -4093,17 +4163,17 @@
       <c r="AV15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW15" t="e">
+      <c r="AX15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>453</v>
       </c>
-      <c r="AZ15" t="e">
+      <c r="BA15" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
@@ -4224,10 +4294,10 @@
       <c r="AP16" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AQ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="5">
+      <c r="AQ16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="19">
         <v>0</v>
       </c>
       <c r="AS16" s="5">
@@ -4242,18 +4312,19 @@
       <c r="AV16" s="5">
         <v>0</v>
       </c>
-      <c r="AW16" s="5" t="s">
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AX16" s="40"/>
-      <c r="AY16" s="5" t="s">
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="AZ16" s="5" t="s">
+      <c r="BA16" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -4371,10 +4442,10 @@
       <c r="AP17">
         <v>0</v>
       </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
+      <c r="AQ17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="19">
         <v>0</v>
       </c>
       <c r="AS17">
@@ -4389,17 +4460,17 @@
       <c r="AV17">
         <v>0</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="s">
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>371</v>
       </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
@@ -4514,16 +4585,16 @@
       <c r="AN18" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="AO18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="21">
+      <c r="AO18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="19">
         <v>0.70138888888888884</v>
       </c>
-      <c r="AR18" s="21">
+      <c r="AR18" s="19">
         <v>0.4375</v>
       </c>
       <c r="AS18" s="5">
@@ -4535,21 +4606,24 @@
       <c r="AU18" s="5">
         <v>0</v>
       </c>
-      <c r="AV18" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="AW18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5" t="s">
+      <c r="AV18" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="AW18" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="AZ18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -4664,16 +4738,16 @@
       <c r="AN19" t="s">
         <v>402</v>
       </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
+      <c r="AO19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="19">
         <v>0</v>
       </c>
       <c r="AS19">
@@ -4688,17 +4762,17 @@
       <c r="AV19">
         <v>0</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="s">
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>373</v>
       </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>102</v>
       </c>
@@ -4813,16 +4887,16 @@
       <c r="AN20" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="AO20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="21">
+      <c r="AO20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="19">
         <v>0.4375</v>
       </c>
-      <c r="AR20" s="21">
+      <c r="AR20" s="19">
         <v>0.45833333333333331</v>
       </c>
       <c r="AS20" s="5">
@@ -4837,18 +4911,19 @@
       <c r="AV20" s="5">
         <v>0</v>
       </c>
-      <c r="AW20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5" t="s">
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="AZ20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -4966,10 +5041,10 @@
       <c r="AP21">
         <v>0</v>
       </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
+      <c r="AQ21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="19">
         <v>0</v>
       </c>
       <c r="AS21">
@@ -4984,17 +5059,17 @@
       <c r="AV21">
         <v>0</v>
       </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="s">
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>375</v>
       </c>
-      <c r="AZ21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -5112,10 +5187,10 @@
       <c r="AP22">
         <v>0</v>
       </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
+      <c r="AQ22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="19">
         <v>0</v>
       </c>
       <c r="AS22">
@@ -5130,17 +5205,17 @@
       <c r="AV22">
         <v>0</v>
       </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="s">
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="s">
         <v>376</v>
       </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>174</v>
       </c>
@@ -5258,10 +5333,10 @@
       <c r="AP23" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AQ23" s="21">
+      <c r="AQ23" s="19">
         <v>0.3125</v>
       </c>
-      <c r="AR23" s="21">
+      <c r="AR23" s="19">
         <v>0.27083333333333331</v>
       </c>
       <c r="AS23" s="5">
@@ -5276,18 +5351,19 @@
       <c r="AV23" s="5">
         <v>0</v>
       </c>
-      <c r="AW23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5" t="s">
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="AZ23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -5423,17 +5499,17 @@
       <c r="AV24">
         <v>0</v>
       </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="s">
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="s">
         <v>378</v>
       </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5569,17 +5645,17 @@
       <c r="AV25">
         <v>0</v>
       </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="s">
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>379</v>
       </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -5715,17 +5791,17 @@
       <c r="AV26">
         <v>0</v>
       </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="s">
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>380</v>
       </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -5840,10 +5916,10 @@
       <c r="AN27">
         <v>0</v>
       </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
+      <c r="AO27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="38">
         <v>0</v>
       </c>
       <c r="AQ27">
@@ -5864,17 +5940,17 @@
       <c r="AV27">
         <v>0</v>
       </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="s">
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>381</v>
       </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -6010,17 +6086,17 @@
       <c r="AV28">
         <v>0</v>
       </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="s">
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>382</v>
       </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -6156,17 +6232,17 @@
       <c r="AV29">
         <v>0</v>
       </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="s">
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="s">
         <v>383</v>
       </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -6302,17 +6378,17 @@
       <c r="AV30">
         <v>0</v>
       </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="s">
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="s">
         <v>384</v>
       </c>
-      <c r="AZ30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -6448,17 +6524,17 @@
       <c r="AV31">
         <v>0</v>
       </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="s">
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="s">
         <v>385</v>
       </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -6594,17 +6670,17 @@
       <c r="AV32">
         <v>0</v>
       </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="s">
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="s">
         <v>386</v>
       </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -6743,17 +6819,17 @@
       <c r="AV33">
         <v>0</v>
       </c>
-      <c r="AW33">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="s">
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="s">
         <v>387</v>
       </c>
-      <c r="AZ33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -6802,8 +6878,8 @@
       <c r="R34" s="1">
         <v>45920</v>
       </c>
-      <c r="S34" s="1">
-        <v>45921</v>
+      <c r="S34" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="T34" t="s">
         <v>158</v>
@@ -6889,17 +6965,17 @@
       <c r="AV34">
         <v>0</v>
       </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="s">
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="s">
         <v>388</v>
       </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -7038,17 +7114,17 @@
       <c r="AV35">
         <v>0</v>
       </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="s">
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="s">
         <v>389</v>
       </c>
-      <c r="AZ35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -7187,17 +7263,17 @@
       <c r="AV36">
         <v>0</v>
       </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="s">
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="s">
         <v>390</v>
       </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -7336,17 +7412,17 @@
       <c r="AV37">
         <v>0</v>
       </c>
-      <c r="AW37">
-        <v>0</v>
-      </c>
-      <c r="AY37" t="s">
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="s">
         <v>391</v>
       </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -7482,17 +7558,17 @@
       <c r="AV38">
         <v>0</v>
       </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AY38" t="s">
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="s">
         <v>392</v>
       </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -7628,17 +7704,17 @@
       <c r="AV39">
         <v>0</v>
       </c>
-      <c r="AW39">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="s">
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="s">
         <v>393</v>
       </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -7774,17 +7850,17 @@
       <c r="AV40">
         <v>0</v>
       </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="s">
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="s">
         <v>395</v>
       </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -7923,17 +7999,17 @@
       <c r="AV41">
         <v>0</v>
       </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="s">
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="s">
         <v>396</v>
       </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -8069,17 +8145,17 @@
       <c r="AV42">
         <v>0</v>
       </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="s">
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="s">
         <v>397</v>
       </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -8215,17 +8291,17 @@
       <c r="AV43">
         <v>0</v>
       </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="s">
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="s">
         <v>398</v>
       </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -8364,18 +8440,52 @@
       <c r="AV44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AW44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AY44" t="e">
+      <c r="AX44" t="e">
         <v>#N/A</v>
       </c>
       <c r="AZ44" t="e">
         <v>#N/A</v>
       </c>
+      <c r="BA44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>460</v>
+      </c>
+      <c r="E45" t="s">
+        <v>461</v>
+      </c>
+      <c r="N45" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="1">
+        <v>45926</v>
+      </c>
+      <c r="S45" s="1">
+        <v>45928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" t="s">
+        <v>466</v>
+      </c>
+      <c r="N46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="1">
+        <v>45924</v>
+      </c>
+      <c r="S46" s="1">
+        <v>45930</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ44" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}"/>
+  <autoFilter ref="A1:BA44" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8411,7 +8521,7 @@
     <col min="33" max="33" width="29.1640625" hidden="1" customWidth="1"/>
     <col min="34" max="35" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="0.83203125" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" style="18" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" style="16" customWidth="1"/>
     <col min="38" max="40" width="13.1640625" customWidth="1"/>
     <col min="41" max="41" width="14.1640625" customWidth="1"/>
     <col min="42" max="46" width="13.1640625" customWidth="1"/>
@@ -8529,7 +8639,7 @@
       <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="12" t="s">
         <v>345</v>
       </c>
       <c r="AL1" s="2" t="s">
@@ -8676,7 +8786,7 @@
       <c r="AJ2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="13" t="s">
         <v>403</v>
       </c>
       <c r="AU2" s="9" t="s">
@@ -8792,7 +8902,7 @@
       <c r="AJ3" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AK3" s="16"/>
+      <c r="AK3" s="14"/>
       <c r="AU3" s="7" t="s">
         <v>359</v>
       </c>
@@ -8906,7 +9016,7 @@
       <c r="AJ4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AK4" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AL4" s="5" t="s">
@@ -9043,7 +9153,7 @@
       <c r="AJ5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK5" s="17" t="s">
+      <c r="AK5" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AN5" s="11">
@@ -9169,7 +9279,7 @@
       <c r="AJ6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK6" s="17" t="s">
+      <c r="AK6" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AL6" s="5" t="s">
@@ -9303,7 +9413,7 @@
       <c r="AJ7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK7" s="17" t="s">
+      <c r="AK7" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AP7" s="5">
@@ -9422,7 +9532,7 @@
       <c r="AJ8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK8" s="16" t="s">
+      <c r="AK8" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU8" s="7" t="s">
@@ -9538,7 +9648,7 @@
       <c r="AJ9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK9" s="16" t="s">
+      <c r="AK9" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU9" s="7" t="s">
@@ -9654,7 +9764,7 @@
       <c r="AJ10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK10" s="16" t="s">
+      <c r="AK10" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU10" s="7" t="s">
@@ -9770,7 +9880,7 @@
       <c r="AJ11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK11" s="17" t="s">
+      <c r="AK11" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AL11" s="5" t="s">
@@ -9907,7 +10017,7 @@
       <c r="AJ12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AK12" s="17" t="s">
+      <c r="AK12" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AL12" s="5" t="s">
@@ -10044,7 +10154,7 @@
       <c r="AJ13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK13" s="16" t="s">
+      <c r="AK13" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU13" s="7" t="s">
@@ -10160,7 +10270,7 @@
       <c r="AJ14" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AK14" s="17" t="s">
+      <c r="AK14" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AL14" s="5" t="s">
@@ -10288,7 +10398,7 @@
       <c r="AJ15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK15" s="16" t="s">
+      <c r="AK15" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU15" s="7" t="s">
@@ -10404,7 +10514,7 @@
       <c r="AJ16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AK16" s="17" t="s">
+      <c r="AK16" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AN16" s="11">
@@ -10535,7 +10645,7 @@
       <c r="AJ17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK17" s="16" t="s">
+      <c r="AK17" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU17" s="7" t="s">
@@ -10651,7 +10761,7 @@
       <c r="AJ18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AK18" s="17" t="s">
+      <c r="AK18" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AN18" s="11">
@@ -10779,7 +10889,7 @@
       <c r="AJ19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AK19" s="15" t="s">
+      <c r="AK19" s="13" t="s">
         <v>402</v>
       </c>
       <c r="AU19" s="9" t="s">
@@ -10895,7 +11005,7 @@
       <c r="AJ20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AK20" s="16" t="s">
+      <c r="AK20" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AU20" s="7" t="s">
@@ -11011,7 +11121,7 @@
       <c r="AJ21" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AK21" s="17" t="s">
+      <c r="AK21" s="15" t="s">
         <v>402</v>
       </c>
       <c r="AL21" s="5" t="s">
@@ -11714,117 +11824,116 @@
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="12" t="s">
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="12" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="1">
         <v>45785</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="1">
         <v>45918</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="1">
         <v>45921</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="R28" t="s">
         <v>136</v>
       </c>
-      <c r="S28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T28" s="12">
-        <v>0</v>
-      </c>
-      <c r="U28" s="12" t="s">
+      <c r="S28" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="12">
+      <c r="V28">
         <v>15</v>
       </c>
-      <c r="W28" s="12">
-        <v>0</v>
-      </c>
-      <c r="X28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="12">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>-54</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA28">
         <v>345</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AB28">
         <v>306</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28">
         <v>306</v>
       </c>
-      <c r="AD28" s="12" t="s">
+      <c r="AD28" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF28" s="12" t="s">
+      <c r="AE28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF28" t="s">
         <v>51</v>
       </c>
-      <c r="AG28" s="12" t="s">
+      <c r="AG28" t="s">
         <v>52</v>
       </c>
-      <c r="AH28" s="12" t="s">
+      <c r="AH28" t="s">
         <v>53</v>
       </c>
-      <c r="AI28" s="12" t="s">
+      <c r="AI28" t="s">
         <v>54</v>
       </c>
-      <c r="AJ28" s="12" t="s">
+      <c r="AJ28" t="s">
         <v>55</v>
       </c>
-      <c r="AK28" s="19"/>
-      <c r="AU28" s="12" t="s">
+      <c r="AU28" t="s">
         <v>384</v>
       </c>
     </row>
@@ -11941,573 +12050,568 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" t="s">
         <v>203</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="12" t="s">
+      <c r="I30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="12">
-        <v>0</v>
-      </c>
-      <c r="N30" s="12" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>204</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="1">
         <v>45852</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="1">
         <v>45919</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="1">
         <v>45923</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" t="s">
         <v>205</v>
       </c>
-      <c r="S30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T30" s="12">
-        <v>0</v>
-      </c>
-      <c r="U30" s="12" t="s">
+      <c r="S30" t="s">
+        <v>48</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30">
         <v>25</v>
       </c>
-      <c r="W30" s="12">
-        <v>0</v>
-      </c>
-      <c r="X30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
         <v>-48.75</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30">
         <v>300</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30">
         <v>276.25</v>
       </c>
-      <c r="AC30" s="12">
+      <c r="AC30">
         <v>276.25</v>
       </c>
-      <c r="AD30" s="12" t="s">
+      <c r="AD30" t="s">
         <v>50</v>
       </c>
-      <c r="AE30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF30" s="12" t="s">
+      <c r="AE30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF30" t="s">
         <v>51</v>
       </c>
-      <c r="AG30" s="12" t="s">
+      <c r="AG30" t="s">
         <v>52</v>
       </c>
-      <c r="AH30" s="12" t="s">
+      <c r="AH30" t="s">
         <v>182</v>
       </c>
-      <c r="AI30" s="12" t="s">
+      <c r="AI30" t="s">
         <v>183</v>
       </c>
-      <c r="AJ30" s="12" t="s">
+      <c r="AJ30" t="s">
         <v>184</v>
       </c>
-      <c r="AK30" s="19"/>
-      <c r="AU30" s="12" t="s">
+      <c r="AU30" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" t="s">
         <v>129</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" t="s">
         <v>86</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="12" t="s">
+      <c r="J31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
         <v>76</v>
       </c>
-      <c r="M31" s="12">
-        <v>0</v>
-      </c>
-      <c r="N31" s="12" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>130</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="1">
         <v>45771</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="1">
         <v>45920</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="1">
         <v>45921</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="R31" t="s">
         <v>131</v>
       </c>
-      <c r="S31" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T31" s="12">
-        <v>0</v>
-      </c>
-      <c r="U31" s="12" t="s">
+      <c r="S31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>79</v>
       </c>
-      <c r="V31" s="12">
+      <c r="V31">
         <v>25</v>
       </c>
-      <c r="W31" s="12">
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="12">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
         <v>113.4</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AB31">
         <v>149.74</v>
       </c>
-      <c r="AC31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="12">
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
         <v>149.74</v>
       </c>
-      <c r="AE31" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF31" s="12" t="s">
+      <c r="AE31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF31" t="s">
         <v>51</v>
       </c>
-      <c r="AG31" s="12" t="s">
+      <c r="AG31" t="s">
         <v>52</v>
       </c>
-      <c r="AH31" s="12" t="s">
+      <c r="AH31" t="s">
         <v>53</v>
       </c>
-      <c r="AI31" s="12" t="s">
+      <c r="AI31" t="s">
         <v>54</v>
       </c>
-      <c r="AJ31" s="12" t="s">
+      <c r="AJ31" t="s">
         <v>55</v>
       </c>
-      <c r="AK31" s="19"/>
-      <c r="AU31" s="12" t="s">
+      <c r="AU31" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" s="12" t="s">
+      <c r="J32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="12">
-        <v>0</v>
-      </c>
-      <c r="N32" s="12" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
         <v>157</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="1">
         <v>45816</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="1">
         <v>45920</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="1">
         <v>45921</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="R32" t="s">
         <v>158</v>
       </c>
-      <c r="S32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T32" s="12">
-        <v>0</v>
-      </c>
-      <c r="U32" s="12" t="s">
+      <c r="S32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32">
         <v>35</v>
       </c>
-      <c r="W32" s="12">
-        <v>0</v>
-      </c>
-      <c r="X32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="12">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
         <v>-32.25</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32">
         <v>180</v>
       </c>
-      <c r="AB32" s="12">
+      <c r="AB32">
         <v>182.75</v>
       </c>
-      <c r="AC32" s="12">
+      <c r="AC32">
         <v>182.75</v>
       </c>
-      <c r="AD32" s="12" t="s">
+      <c r="AD32" t="s">
         <v>50</v>
       </c>
-      <c r="AE32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF32" s="12" t="s">
+      <c r="AE32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF32" t="s">
         <v>51</v>
       </c>
-      <c r="AG32" s="12" t="s">
+      <c r="AG32" t="s">
         <v>52</v>
       </c>
-      <c r="AH32" s="12" t="s">
+      <c r="AH32" t="s">
         <v>53</v>
       </c>
-      <c r="AI32" s="12" t="s">
+      <c r="AI32" t="s">
         <v>54</v>
       </c>
-      <c r="AJ32" s="12" t="s">
+      <c r="AJ32" t="s">
         <v>55</v>
       </c>
-      <c r="AK32" s="19"/>
-      <c r="AU32" s="12" t="s">
+      <c r="AU32" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" t="s">
         <v>260</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" t="s">
         <v>261</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" t="s">
         <v>262</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="12" t="s">
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
         <v>76</v>
       </c>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>263</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="1">
         <v>45884</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="1">
         <v>45920</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="1">
         <v>45921</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="R33" t="s">
         <v>264</v>
       </c>
-      <c r="S33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T33" s="12">
-        <v>0</v>
-      </c>
-      <c r="U33" s="12" t="s">
+      <c r="S33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
         <v>79</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V33">
         <v>25</v>
       </c>
-      <c r="W33" s="12">
-        <v>0</v>
-      </c>
-      <c r="X33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="12">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <v>96.39</v>
       </c>
-      <c r="AB33" s="12">
+      <c r="AB33">
         <v>131.03</v>
       </c>
-      <c r="AC33" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="12">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <v>131.03</v>
       </c>
-      <c r="AE33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF33" s="12" t="s">
+      <c r="AE33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF33" t="s">
         <v>51</v>
       </c>
-      <c r="AG33" s="12" t="s">
+      <c r="AG33" t="s">
         <v>52</v>
       </c>
-      <c r="AH33" s="12" t="s">
+      <c r="AH33" t="s">
         <v>53</v>
       </c>
-      <c r="AI33" s="12" t="s">
+      <c r="AI33" t="s">
         <v>54</v>
       </c>
-      <c r="AJ33" s="12" t="s">
+      <c r="AJ33" t="s">
         <v>55</v>
       </c>
-      <c r="AK33" s="19"/>
-      <c r="AU33" s="12" t="s">
+      <c r="AU33" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="12" t="s">
+      <c r="I34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
-      <c r="N34" s="12" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="1">
         <v>45595</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="1">
         <v>45921</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="1">
         <v>45927</v>
       </c>
-      <c r="R34" s="12" t="s">
+      <c r="R34" t="s">
         <v>47</v>
       </c>
-      <c r="S34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="T34" s="12">
-        <v>0</v>
-      </c>
-      <c r="U34" s="12" t="s">
+      <c r="S34" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
         <v>49</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34">
         <v>15</v>
       </c>
-      <c r="W34" s="12">
-        <v>0</v>
-      </c>
-      <c r="X34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="12">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <v>-21.15</v>
       </c>
-      <c r="AA34" s="12">
+      <c r="AA34">
         <v>690</v>
       </c>
-      <c r="AB34" s="12">
+      <c r="AB34">
         <v>683.85</v>
       </c>
-      <c r="AC34" s="12">
+      <c r="AC34">
         <v>683.85</v>
       </c>
-      <c r="AD34" s="12" t="s">
+      <c r="AD34" t="s">
         <v>50</v>
       </c>
-      <c r="AE34" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF34" s="12" t="s">
+      <c r="AE34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF34" t="s">
         <v>51</v>
       </c>
-      <c r="AG34" s="12" t="s">
+      <c r="AG34" t="s">
         <v>52</v>
       </c>
-      <c r="AH34" s="12" t="s">
+      <c r="AH34" t="s">
         <v>53</v>
       </c>
-      <c r="AI34" s="12" t="s">
+      <c r="AI34" t="s">
         <v>54</v>
       </c>
-      <c r="AJ34" s="12" t="s">
+      <c r="AJ34" t="s">
         <v>55</v>
       </c>
-      <c r="AK34" s="19"/>
-      <c r="AU34" s="12" t="s">
+      <c r="AU34" t="s">
         <v>390</v>
       </c>
     </row>

--- a/sample_bookings.xlsx
+++ b/sample_bookings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B64A20-D5BD-E84A-9850-15AC69B811BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510519A-6614-D242-B242-22C17985C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Glossary" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Sept'!$A$1:$BA$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 Sept'!$A$1:$BA$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'25 agosto'!$A$1:$AW$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja1!$A$1:$X$42</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="497">
   <si>
     <t>Property Internal Name</t>
   </si>
@@ -1394,9 +1394,6 @@
     <t>HMCYP8JY4F</t>
   </si>
   <si>
-    <t>SI CLIENTE PASADO</t>
-  </si>
-  <si>
     <t>PARKING</t>
   </si>
   <si>
@@ -1424,12 +1421,6 @@
     <t>CHECK-OUT HORA</t>
   </si>
   <si>
-    <t xml:space="preserve">Maya </t>
-  </si>
-  <si>
-    <t>Greendelf</t>
-  </si>
-  <si>
     <t>NUMBER GUESTS</t>
   </si>
   <si>
@@ -1455,6 +1446,93 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Greenfeld</t>
+  </si>
+  <si>
+    <t>mgreen.110026@guest.booking.com</t>
+  </si>
+  <si>
+    <t>+972532783381</t>
+  </si>
+  <si>
+    <t>c51d62a8-ace9-4f57-be8b-9c62b5adf0ea</t>
+  </si>
+  <si>
+    <t>6906307950</t>
+  </si>
+  <si>
+    <t>jmarro.441780@guest.booking.com</t>
+  </si>
+  <si>
+    <t>+573105271236</t>
+  </si>
+  <si>
+    <t>c491dbd3-09d8-42ab-b4c7-9a4110bde6a7</t>
+  </si>
+  <si>
+    <t>5504808630</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Als</t>
+  </si>
+  <si>
+    <t>+50377981734</t>
+  </si>
+  <si>
+    <t>fb044dd2-1528-4319-9f5a-cc44fa1b130c</t>
+  </si>
+  <si>
+    <t>HMW5PJMEBS</t>
+  </si>
+  <si>
+    <t>Victoria Natareno</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Belfon</t>
+  </si>
+  <si>
+    <t>abelfo.603782@guest.booking.com</t>
+  </si>
+  <si>
+    <t>+13037200246</t>
+  </si>
+  <si>
+    <t>db8192b8-450e-4ccd-aa9c-97a762932dab</t>
+  </si>
+  <si>
+    <t>5792077477</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Jean-Charles</t>
+  </si>
+  <si>
+    <t>+50937215227</t>
+  </si>
+  <si>
+    <t>a340a229-cb8a-4d28-ab6d-579647513c5d</t>
+  </si>
+  <si>
+    <t>HMYE4K838B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 PM / 21:00 on Wednesday September 3rd </t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1543,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;B/.&quot;* #,##0.00_-;\-&quot;B/.&quot;* #,##0.00_-;_-&quot;B/.&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1509,8 +1587,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,8 +1632,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1614,17 +1705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1638,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1668,32 +1748,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2034,15 +2126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}">
-  <dimension ref="A1:BA46"/>
+  <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AW1"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
@@ -2055,9 +2147,14 @@
     <col min="20" max="29" width="0" hidden="1" customWidth="1"/>
     <col min="31" max="38" width="0" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="16" style="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.6640625" customWidth="1"/>
+    <col min="41" max="41" width="3.33203125" customWidth="1"/>
+    <col min="42" max="42" width="5.83203125" customWidth="1"/>
+    <col min="43" max="43" width="16" style="47" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="45" max="51" width="10.83203125" style="25"/>
+    <col min="52" max="52" width="39.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2185,323 +2282,315 @@
       <c r="AP1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AQ1" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="AR1" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AS1" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="AV1" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="AW1" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="AX1" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="AY1" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="AZ1" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BA1" s="39" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:53" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="23" t="s">
+      <c r="K2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="23">
-        <v>0</v>
-      </c>
-      <c r="P2" s="23" t="s">
+      <c r="O2" s="30">
+        <v>0</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="31">
         <v>45841</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="31">
         <v>45901</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="31">
         <v>45907</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="23">
-        <v>0</v>
-      </c>
-      <c r="W2" s="23" t="s">
+      <c r="V2" s="30">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="30">
         <v>25</v>
       </c>
-      <c r="Y2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="23">
+      <c r="Y2" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="30">
         <v>-71.25</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="30">
         <v>450</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="30">
         <v>403.75</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="30">
         <v>403.75</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AG2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AK2" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="AL2" s="23" t="s">
+      <c r="AL2" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="AN2" s="23" t="s">
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="AO2" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP2" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="19">
+      <c r="AQ2" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="40">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AT2" s="23" t="s">
+      <c r="AT2" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="AU2" s="23" t="s">
+      <c r="AU2" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="AZ2" s="23" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="BA2" s="23">
+      <c r="BA2" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="K3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="33">
+        <v>0</v>
+      </c>
+      <c r="P3" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="34">
         <v>45877</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="34">
         <v>45901</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="34">
         <v>45902</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="U3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="U3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="33">
+        <v>0</v>
+      </c>
+      <c r="W3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="33">
         <v>35</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
+      <c r="Y3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="33">
         <v>-32.25</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="33">
         <v>180</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="33">
         <v>182.75</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="33">
         <v>182.75</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AG3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="AO3" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ3" s="19">
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="40">
         <v>0.625</v>
       </c>
-      <c r="AR3" s="19">
+      <c r="AR3" s="40">
         <v>0.5625</v>
       </c>
-      <c r="AS3" s="5">
+      <c r="AS3" s="25">
         <v>8</v>
       </c>
-      <c r="AT3" s="5" t="s">
+      <c r="AT3" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="AU3" s="5" t="s">
+      <c r="AU3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5" t="s">
+      <c r="AZ3" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="BA3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="BA3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -2613,1269 +2702,1183 @@
       </c>
       <c r="AM4" s="27"/>
       <c r="AN4" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP4" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-    </row>
-    <row r="5" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AZ4" s="43" t="str">
+        <f>CONCATENATE(D4," ",E4," ","Catedral","A","1 al 2")</f>
+        <v>Ricaurte Ortiz Blades CatedralA1 al 2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="35">
+        <v>0</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>45901</v>
+      </c>
+      <c r="R5" s="36">
+        <v>45901</v>
+      </c>
+      <c r="S5" s="36">
+        <v>45902</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="V5" s="35">
+        <v>0</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="35">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="35">
+        <v>-19.2</v>
+      </c>
+      <c r="AC5" s="35">
+        <v>103</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>108.8</v>
+      </c>
+      <c r="AE5" s="35">
+        <v>108.8</v>
+      </c>
+      <c r="AF5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AZ5" s="42" t="str">
+        <f>CONCATENATE(D5," ",E5," ","Jeronimo","A","1 al 2")</f>
+        <v>Maria Als JeronimoA1 al 2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C6" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I6" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="L6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q6" s="28">
         <v>45769</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R6" s="28">
         <v>45902</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S6" s="28">
         <v>45904</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T6" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="32">
-        <v>0</v>
-      </c>
-      <c r="W5" s="32" t="s">
+      <c r="U6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="27">
+        <v>0</v>
+      </c>
+      <c r="W6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="X5" s="32">
+      <c r="X6" s="27">
         <v>25</v>
       </c>
-      <c r="Y5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="32">
+      <c r="Y6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="27">
         <v>226.8</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD6" s="27">
         <v>274.48</v>
       </c>
-      <c r="AE5" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="32">
+      <c r="AE6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="27">
         <v>274.48</v>
       </c>
-      <c r="AG5" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="32" t="s">
+      <c r="AG6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="32" t="s">
+      <c r="AI6" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AJ5" s="32" t="s">
+      <c r="AJ6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="32" t="s">
+      <c r="AK6" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" s="32" t="s">
+      <c r="AL6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AN5" s="31" t="s">
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="AO5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="34">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="35">
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="44">
         <v>0.60416666666666663</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AR6" s="44">
         <v>0.5</v>
       </c>
-      <c r="AS5" s="31">
+      <c r="AS6" s="43">
         <v>3</v>
       </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31" t="s">
+      <c r="AZ6" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="BA5" s="31" t="s">
+      <c r="BA6" s="43" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    <row r="7" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="K7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="32">
-        <v>0</v>
-      </c>
-      <c r="P6" s="31" t="s">
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q7" s="28">
         <v>45883</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R7" s="28">
         <v>45902</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S7" s="28">
         <v>45908</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T7" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="U6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="32">
-        <v>0</v>
-      </c>
-      <c r="W6" s="32" t="s">
+      <c r="U7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X7" s="27">
         <v>25</v>
       </c>
-      <c r="Y6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="32">
+      <c r="Y7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
         <v>-117.15</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC7" s="27">
         <v>756</v>
       </c>
-      <c r="AD6" s="31">
+      <c r="AD7" s="27">
         <v>663.85</v>
       </c>
-      <c r="AE6" s="32">
+      <c r="AE7" s="27">
         <v>663.85</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="AF7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="32" t="s">
+      <c r="AG7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AI6" s="32" t="s">
+      <c r="AI7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AJ6" s="32" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" s="32" t="s">
+      <c r="AK7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AL6" s="32" t="s">
+      <c r="AL7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AN6" s="31" t="s">
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="AO6" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP6" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ6" s="35">
+      <c r="AQ7" s="44">
         <v>0.625</v>
       </c>
-      <c r="AR6" s="35">
+      <c r="AR7" s="44">
         <v>0.5</v>
       </c>
-      <c r="AS6" s="31">
+      <c r="AS7" s="43">
         <v>2</v>
       </c>
-      <c r="AT6" s="31" t="s">
+      <c r="AT7" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="AU6" s="31"/>
-      <c r="AV6" s="31"/>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="31"/>
-      <c r="AY6" s="31"/>
-      <c r="AZ6" s="31" t="s">
+      <c r="AY7" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="AZ7" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="BA6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="BA7" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J8" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="29" t="s">
+      <c r="K8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="29">
-        <v>0</v>
-      </c>
-      <c r="P7" s="29" t="s">
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q8" s="28">
         <v>45901</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R8" s="28">
         <v>45902</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S8" s="28">
         <v>45904</v>
       </c>
-      <c r="T7" s="29" t="s">
+      <c r="T8" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="U7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="29">
-        <v>0</v>
-      </c>
-      <c r="W7" s="29" t="s">
+      <c r="U8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X8" s="27">
         <v>35</v>
       </c>
-      <c r="Y7" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="29">
+      <c r="Y8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27">
         <v>-42.75</v>
       </c>
-      <c r="AC7" s="29">
+      <c r="AC8" s="27">
         <v>250</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AD8" s="27">
         <v>242.25</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AE8" s="27">
         <v>242.25</v>
       </c>
-      <c r="AF7" s="29" t="s">
+      <c r="AF8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AG7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" s="29" t="s">
+      <c r="AG8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AI7" s="29" t="s">
+      <c r="AI8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AJ7" s="29" t="s">
+      <c r="AJ8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AK7" s="29" t="s">
+      <c r="AK8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="29" t="s">
+      <c r="AL8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AN7" s="29" t="s">
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="AO7" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP7" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AY7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ7" s="29" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AY8" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="AZ8" s="43" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="35">
+        <v>0</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>45902</v>
+      </c>
+      <c r="R9" s="36">
+        <v>45902</v>
+      </c>
+      <c r="S9" s="36">
+        <v>45903</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="35">
+        <v>0</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="35">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="35">
+        <v>-22.05</v>
+      </c>
+      <c r="AC9" s="35">
+        <v>112</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>124.95</v>
+      </c>
+      <c r="AE9" s="35">
+        <v>124.95</v>
+      </c>
+      <c r="AF9" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AZ9" s="43" t="str">
+        <f>CONCATENATE(D9," ",E9," ","104","A","2 al 3")</f>
+        <v>Kurt Jean-Charles 104A2 al 3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I10" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="K10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q10" s="23">
         <v>45886</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R10" s="23">
         <v>45903</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S10" s="23">
         <v>45905</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T10" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="U10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="X8">
+      <c r="X10" s="22">
         <v>35</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="Y10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22">
         <v>-59.25</v>
       </c>
-      <c r="AC8">
+      <c r="AC10" s="22">
         <v>360</v>
       </c>
-      <c r="AD8">
+      <c r="AD10" s="22">
         <v>335.75</v>
       </c>
-      <c r="AE8">
+      <c r="AE10" s="22">
         <v>335.75</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AG8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AG10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AK10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AZ8" t="s">
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AZ10" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="BA10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J11" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O11" s="27">
+        <v>0</v>
+      </c>
+      <c r="P11" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q11" s="28">
         <v>45890</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R11" s="28">
         <v>45903</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S11" s="28">
         <v>45904</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T11" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="U9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="U11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="27">
+        <v>0</v>
+      </c>
+      <c r="W11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="X9">
+      <c r="X11" s="27">
         <v>30</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
+      <c r="Y11" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="27">
         <v>-19.93</v>
       </c>
-      <c r="AC9">
+      <c r="AC11" s="27">
         <v>102.87</v>
       </c>
-      <c r="AD9">
+      <c r="AD11" s="27">
         <v>112.94</v>
       </c>
-      <c r="AE9">
+      <c r="AE11" s="27">
         <v>112.94</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AG9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AG11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="44">
         <v>0.85</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR11" s="44">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AV9" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW9" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AZ9" t="s">
+      <c r="AV11" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="AW11" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="AZ11" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="BA9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="BA11" s="43" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>45902</v>
+      </c>
+      <c r="R12" s="20">
+        <v>45903</v>
+      </c>
+      <c r="S12" s="20">
+        <v>45904</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" s="17">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>63.42</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>94.76</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>94.76</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AV12" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="AZ12" s="42" t="str">
+        <f>CONCATENATE(D12," ",E12," ","Jeronimo","B","3 al 4 Sep")</f>
+        <v>Anna Belfon JeronimoB3 al 4 Sep</v>
+      </c>
+      <c r="BA12" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B13" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C13" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D13" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E13" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J13" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="M13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q13" s="34">
         <v>45701</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R13" s="34">
         <v>45904</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S13" s="34">
         <v>45906</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="W10" s="5" t="s">
+      <c r="U13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="33">
+        <v>0</v>
+      </c>
+      <c r="W13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X13" s="33">
         <v>10</v>
       </c>
-      <c r="Y10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="5">
+      <c r="Y13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33">
         <v>-43.5</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC13" s="33">
         <v>280</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD13" s="33">
         <v>246.5</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE13" s="33">
         <v>246.5</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AG10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AG13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH13" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI10" s="5" t="s">
+      <c r="AI13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AJ13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AK13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL10" s="5" t="s">
+      <c r="AL13" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5" t="s">
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="AO10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="19">
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="40">
         <v>0.625</v>
       </c>
-      <c r="AR10" s="19">
+      <c r="AR13" s="40">
         <v>0.5</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="AS13" s="25">
         <v>7</v>
       </c>
-      <c r="AT10" s="5" t="s">
+      <c r="AT13" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="AU10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="AZ10" s="5" t="s">
+      <c r="AU13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ13" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="BA10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" t="s">
-        <v>425</v>
-      </c>
-      <c r="H11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>45824</v>
-      </c>
-      <c r="R11" s="1">
-        <v>45904</v>
-      </c>
-      <c r="S11" s="1">
-        <v>45906</v>
-      </c>
-      <c r="T11" t="s">
-        <v>173</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11">
-        <v>35</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>320.39999999999998</v>
-      </c>
-      <c r="AD11">
-        <v>387.44</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>387.44</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AZ11" t="s">
-        <v>366</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>45884</v>
-      </c>
-      <c r="R12" s="6">
-        <v>45905</v>
-      </c>
-      <c r="S12" s="6">
-        <v>45909</v>
-      </c>
-      <c r="T12" t="s">
-        <v>269</v>
-      </c>
-      <c r="U12" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12">
-        <v>35</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>-113.25</v>
-      </c>
-      <c r="AC12">
-        <v>720</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>641.75</v>
-      </c>
-      <c r="AE12">
-        <v>641.75</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN12" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO12" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP12" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ12" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AR12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AS12" s="5">
-        <v>8</v>
-      </c>
-      <c r="AT12" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="AU12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>45669</v>
-      </c>
-      <c r="R13" s="6">
-        <v>45906</v>
-      </c>
-      <c r="S13" s="6">
-        <v>45908</v>
-      </c>
-      <c r="T13" t="s">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13">
-        <v>10</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>-34.5</v>
-      </c>
-      <c r="AC13">
-        <v>220</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>195.5</v>
-      </c>
-      <c r="AE13">
-        <v>195.5</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN13" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO13" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP13" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ13" s="19">
-        <v>0.65625</v>
-      </c>
-      <c r="AR13" s="19">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="AS13" s="5">
-        <v>3</v>
-      </c>
-      <c r="AT13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW13" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AX13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="BA13" s="5" t="s">
-        <v>407</v>
+      <c r="BA13" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
@@ -3889,25 +3892,25 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
@@ -3922,19 +3925,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="1">
-        <v>45682</v>
+        <v>45824</v>
       </c>
       <c r="R14" s="1">
+        <v>45904</v>
+      </c>
+      <c r="S14" s="1">
         <v>45906</v>
       </c>
-      <c r="S14" s="1">
-        <v>45908</v>
-      </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="U14" t="s">
         <v>48</v>
@@ -3946,7 +3949,7 @@
         <v>79</v>
       </c>
       <c r="X14">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -3961,16 +3964,16 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>226.8</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="AD14">
-        <v>274.48</v>
+        <v>387.44</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>274.48</v>
+        <v>387.44</v>
       </c>
       <c r="AG14" t="s">
         <v>48</v>
@@ -3993,364 +3996,340 @@
       <c r="AN14" t="s">
         <v>402</v>
       </c>
-      <c r="AO14" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>369</v>
-      </c>
-      <c r="BA14">
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AZ14" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA14" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>440</v>
-      </c>
-      <c r="E15" t="s">
-        <v>441</v>
-      </c>
-      <c r="H15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I15" t="s">
-        <v>442</v>
-      </c>
-      <c r="J15" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="A15" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>45900</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>45884</v>
+      </c>
+      <c r="R15" s="34">
+        <v>45905</v>
+      </c>
+      <c r="S15" s="34">
+        <v>45909</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="33">
+        <v>0</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" s="33">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="33">
+        <v>-113.25</v>
+      </c>
+      <c r="AC15" s="33">
+        <v>720</v>
+      </c>
+      <c r="AD15" s="33">
+        <v>641.75</v>
+      </c>
+      <c r="AE15" s="33">
+        <v>641.75</v>
+      </c>
+      <c r="AF15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="AR15" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AS15" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT15" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="AZ15" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>45669</v>
+      </c>
+      <c r="R16" s="34">
         <v>45906</v>
       </c>
-      <c r="S15" s="1">
-        <v>45907</v>
-      </c>
-      <c r="T15" t="s">
-        <v>444</v>
-      </c>
-      <c r="U15" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="S16" s="34">
+        <v>45908</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" s="33">
+        <v>0</v>
+      </c>
+      <c r="W16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="X15">
-        <v>35</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>-26.58</v>
-      </c>
-      <c r="AC15">
-        <v>142.19999999999999</v>
-      </c>
-      <c r="AD15">
-        <v>150.62</v>
-      </c>
-      <c r="AE15">
-        <v>150.62</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="X16" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="33">
+        <v>-34.5</v>
+      </c>
+      <c r="AC16" s="33">
+        <v>220</v>
+      </c>
+      <c r="AD16" s="33">
+        <v>195.5</v>
+      </c>
+      <c r="AE16" s="33">
+        <v>195.5</v>
+      </c>
+      <c r="AF16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AG15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AG16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AI16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AN15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ15" s="19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AR15" s="19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>453</v>
-      </c>
-      <c r="BA15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>45865</v>
-      </c>
-      <c r="R16" s="6">
-        <v>45907</v>
-      </c>
-      <c r="S16" s="6">
-        <v>45909</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="X16" s="5">
-        <v>25</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>-26.25</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>150</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>148.75</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>148.75</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5" t="s">
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="AO16" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP16" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5">
-        <v>2</v>
-      </c>
-      <c r="AT16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="AV16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AY16" s="30"/>
-      <c r="AZ16" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA16" s="5" t="s">
-        <v>455</v>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="40">
+        <v>0.65625</v>
+      </c>
+      <c r="AR16" s="40">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="AW16" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="AX16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA16" s="25" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>418</v>
       </c>
       <c r="H17" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
@@ -4359,25 +4338,25 @@
         <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="1">
-        <v>45879</v>
+        <v>45682</v>
       </c>
       <c r="R17" s="1">
-        <v>45907</v>
+        <v>45906</v>
       </c>
       <c r="S17" s="1">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="T17" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s">
         <v>48</v>
@@ -4386,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -4401,19 +4380,19 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>-53.85</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>324</v>
+        <v>226.8</v>
       </c>
       <c r="AD17">
-        <v>305.14999999999998</v>
+        <v>274.48</v>
       </c>
       <c r="AE17">
-        <v>305.14999999999998</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>274.48</v>
       </c>
       <c r="AG17" t="s">
         <v>48</v>
@@ -4436,70 +4415,63 @@
       <c r="AN17" t="s">
         <v>402</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA17">
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="BA17" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>102</v>
+      <c r="A18" t="s">
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" t="s">
-        <v>423</v>
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" t="s">
+        <v>441</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>147</v>
+        <v>442</v>
+      </c>
+      <c r="I18" t="s">
+        <v>442</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
@@ -4507,38 +4479,38 @@
       <c r="M18" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>76</v>
+      <c r="N18" t="s">
+        <v>45</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>45796</v>
-      </c>
-      <c r="R18" s="6">
-        <v>45908</v>
-      </c>
-      <c r="S18" s="6">
-        <v>45910</v>
+      <c r="P18" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>45900</v>
+      </c>
+      <c r="R18" s="1">
+        <v>45906</v>
+      </c>
+      <c r="S18" s="1">
+        <v>45907</v>
       </c>
       <c r="T18" t="s">
-        <v>149</v>
+        <v>444</v>
       </c>
       <c r="U18" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -4550,549 +4522,515 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-26.58</v>
       </c>
       <c r="AC18">
-        <v>144.18</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>178.6</v>
+        <v>142.19999999999999</v>
+      </c>
+      <c r="AD18">
+        <v>150.62</v>
       </c>
       <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>178.6</v>
+        <v>150.62</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>50</v>
       </c>
       <c r="AG18" t="s">
         <v>48</v>
       </c>
       <c r="AH18" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s">
         <v>52</v>
       </c>
       <c r="AJ18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AK18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AL18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN18" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AZ18" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA18" s="25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>45865</v>
+      </c>
+      <c r="R19" s="34">
+        <v>45907</v>
+      </c>
+      <c r="S19" s="34">
+        <v>45909</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" s="33">
+        <v>0</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" s="33">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="33">
+        <v>-26.25</v>
+      </c>
+      <c r="AC19" s="33">
+        <v>150</v>
+      </c>
+      <c r="AD19" s="33">
+        <v>148.75</v>
+      </c>
+      <c r="AE19" s="33">
+        <v>148.75</v>
+      </c>
+      <c r="AF19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI19" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK19" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL19" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="AO18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="19">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="AR18" s="19">
-        <v>0.4375</v>
-      </c>
-      <c r="AS18" s="5">
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="25">
         <v>2</v>
       </c>
-      <c r="AT18" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AU18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AW18" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AX18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="BA18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F19" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I19" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="AT19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="BA19" s="25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" t="s">
         <v>156</v>
       </c>
-      <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>45867</v>
-      </c>
-      <c r="R19" s="1">
-        <v>45908</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>45879</v>
+      </c>
+      <c r="R20" s="1">
+        <v>45907</v>
+      </c>
+      <c r="S20" s="1">
         <v>45909</v>
       </c>
-      <c r="T19" t="s">
-        <v>229</v>
-      </c>
-      <c r="U19" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>79</v>
-      </c>
-      <c r="X19">
+      <c r="T20" t="s">
+        <v>244</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20">
         <v>35</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="AD19">
-        <v>195.38</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>195.38</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>-53.85</v>
+      </c>
+      <c r="AC20">
+        <v>324</v>
+      </c>
+      <c r="AD20">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="AE20">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH20" t="s">
         <v>51</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO19" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>45754</v>
-      </c>
-      <c r="R20" s="6">
-        <v>45910</v>
-      </c>
-      <c r="S20" s="6">
-        <v>45912</v>
-      </c>
-      <c r="T20" t="s">
-        <v>109</v>
-      </c>
-      <c r="U20" t="s">
-        <v>95</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X20">
-        <v>20</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>144.18</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>178.6</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>178.6</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>110</v>
       </c>
       <c r="AI20" t="s">
         <v>52</v>
       </c>
       <c r="AJ20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AK20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AL20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN20" t="s">
         <v>402</v>
       </c>
-      <c r="AO20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="19">
+      <c r="AQ20" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>45796</v>
+      </c>
+      <c r="R21" s="34">
+        <v>45908</v>
+      </c>
+      <c r="S21" s="34">
+        <v>45910</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="U21" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="33">
+        <v>0</v>
+      </c>
+      <c r="W21" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="X21" s="33">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="33">
+        <v>144.18</v>
+      </c>
+      <c r="AD21" s="33">
+        <v>178.6</v>
+      </c>
+      <c r="AE21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="33">
+        <v>178.6</v>
+      </c>
+      <c r="AG21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="40">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="AR21" s="40">
         <v>0.4375</v>
       </c>
-      <c r="AR20" s="19">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="AS20" s="5">
-        <v>3</v>
-      </c>
-      <c r="AT20" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AU20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="BA20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>45756</v>
-      </c>
-      <c r="R21" s="1">
-        <v>45910</v>
-      </c>
-      <c r="S21" s="1">
-        <v>45913</v>
-      </c>
-      <c r="T21" t="s">
-        <v>115</v>
-      </c>
-      <c r="U21" t="s">
-        <v>48</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>49</v>
-      </c>
-      <c r="X21">
-        <v>20</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>-66</v>
-      </c>
-      <c r="AC21">
-        <v>420</v>
-      </c>
-      <c r="AD21">
-        <v>374</v>
-      </c>
-      <c r="AE21">
-        <v>374</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>375</v>
-      </c>
-      <c r="BA21">
+      <c r="AS21" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="AW21" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="AX21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA21" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>226</v>
+      </c>
+      <c r="F22" t="s">
+        <v>427</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s">
         <v>44</v>
@@ -5104,25 +5042,25 @@
         <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="1">
-        <v>45791</v>
+        <v>45867</v>
       </c>
       <c r="R22" s="1">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="S22" s="1">
-        <v>45913</v>
+        <v>45909</v>
       </c>
       <c r="T22" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="U22" t="s">
         <v>48</v>
@@ -5131,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X22">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -5146,19 +5084,19 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>-54.75</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>345</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="AD22">
-        <v>310.25</v>
+        <v>195.38</v>
       </c>
       <c r="AE22">
-        <v>310.25</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>195.38</v>
       </c>
       <c r="AG22" t="s">
         <v>48</v>
@@ -5181,212 +5119,207 @@
       <c r="AN22" t="s">
         <v>402</v>
       </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>376</v>
-      </c>
-      <c r="BA22">
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA22" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" t="s">
-        <v>208</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>45856</v>
-      </c>
-      <c r="R23" s="6">
+      <c r="A23" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="34">
+        <v>45754</v>
+      </c>
+      <c r="R23" s="34">
         <v>45910</v>
       </c>
-      <c r="S23" s="6">
-        <v>45913</v>
-      </c>
-      <c r="T23" t="s">
-        <v>210</v>
-      </c>
-      <c r="U23" t="s">
-        <v>48</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>49</v>
-      </c>
-      <c r="X23">
-        <v>25</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>-34.130000000000003</v>
-      </c>
-      <c r="AC23">
-        <v>202.5</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>193.37</v>
-      </c>
-      <c r="AE23">
-        <v>193.37</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="S23" s="34">
+        <v>45912</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="V23" s="33">
+        <v>0</v>
+      </c>
+      <c r="W23" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="X23" s="33">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="33">
+        <v>144.18</v>
+      </c>
+      <c r="AD23" s="33">
+        <v>178.6</v>
+      </c>
+      <c r="AE23" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="33">
+        <v>178.6</v>
+      </c>
+      <c r="AG23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH23" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN23" s="5" t="s">
+      <c r="AJ23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="AO23" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AP23" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="AQ23" s="19">
-        <v>0.3125</v>
-      </c>
-      <c r="AR23" s="19">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="AS23" s="5">
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="AR23" s="40">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AS23" s="25">
         <v>3</v>
       </c>
-      <c r="AT23" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="AU23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BA23" s="5">
+      <c r="AT23" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA23" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -5404,19 +5337,19 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="1">
-        <v>45882</v>
+        <v>45756</v>
       </c>
       <c r="R24" s="1">
         <v>45910</v>
       </c>
       <c r="S24" s="1">
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="T24" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="U24" t="s">
         <v>48</v>
@@ -5428,7 +5361,7 @@
         <v>49</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -5440,16 +5373,16 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>-28.5</v>
+        <v>-66</v>
       </c>
       <c r="AC24">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="AD24">
-        <v>161.5</v>
+        <v>374</v>
       </c>
       <c r="AE24">
-        <v>161.5</v>
+        <v>374</v>
       </c>
       <c r="AF24" t="s">
         <v>50</v>
@@ -5472,70 +5405,64 @@
       <c r="AL24" t="s">
         <v>55</v>
       </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>378</v>
-      </c>
-      <c r="BA24">
+      <c r="AN24" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA24" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L25" t="s">
         <v>44</v>
@@ -5550,19 +5477,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="1">
-        <v>45631</v>
+        <v>45791</v>
       </c>
       <c r="R25" s="1">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="S25" s="1">
         <v>45913</v>
       </c>
       <c r="T25" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="U25" t="s">
         <v>48</v>
@@ -5574,7 +5501,7 @@
         <v>49</v>
       </c>
       <c r="X25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -5586,16 +5513,16 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>-44.25</v>
+        <v>-54.75</v>
       </c>
       <c r="AC25">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="AD25">
-        <v>250.75</v>
+        <v>310.25</v>
       </c>
       <c r="AE25">
-        <v>250.75</v>
+        <v>310.25</v>
       </c>
       <c r="AF25" t="s">
         <v>50</v>
@@ -5618,216 +5545,206 @@
       <c r="AL25" t="s">
         <v>55</v>
       </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA25">
+      <c r="AN25" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA25" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" t="s">
-        <v>192</v>
-      </c>
-      <c r="J26" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="A26" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>45838</v>
-      </c>
-      <c r="R26" s="1">
-        <v>45912</v>
-      </c>
-      <c r="S26" s="1">
-        <v>45915</v>
-      </c>
-      <c r="T26" t="s">
-        <v>195</v>
-      </c>
-      <c r="U26" t="s">
-        <v>48</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="O26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q26" s="34">
+        <v>45856</v>
+      </c>
+      <c r="R26" s="34">
+        <v>45910</v>
+      </c>
+      <c r="S26" s="34">
+        <v>45913</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="33">
+        <v>0</v>
+      </c>
+      <c r="W26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="X26">
-        <v>35</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>-86.25</v>
-      </c>
-      <c r="AC26">
-        <v>540</v>
-      </c>
-      <c r="AD26">
-        <v>488.75</v>
-      </c>
-      <c r="AE26">
-        <v>488.75</v>
-      </c>
-      <c r="AF26" t="s">
+      <c r="X26" s="33">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="33">
+        <v>-34.130000000000003</v>
+      </c>
+      <c r="AC26" s="33">
+        <v>202.5</v>
+      </c>
+      <c r="AD26" s="33">
+        <v>193.37</v>
+      </c>
+      <c r="AE26" s="33">
+        <v>193.37</v>
+      </c>
+      <c r="AF26" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AG26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="AG26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH26" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AI26" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA26">
+      <c r="AJ26" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK26" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL26" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="40">
+        <v>0.3125</v>
+      </c>
+      <c r="AR26" s="40">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT26" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="BA26" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>419</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
         <v>44</v>
@@ -5839,37 +5756,37 @@
         <v>44</v>
       </c>
       <c r="N27" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="Q27" s="1">
-        <v>45713</v>
+        <v>45882</v>
       </c>
       <c r="R27" s="1">
-        <v>45913</v>
+        <v>45910</v>
       </c>
       <c r="S27" s="1">
-        <v>45914</v>
+        <v>45911</v>
       </c>
       <c r="T27" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="U27" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -5881,19 +5798,19 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-28.5</v>
       </c>
       <c r="AC27">
-        <v>113.4</v>
+        <v>190</v>
       </c>
       <c r="AD27">
-        <v>149.74</v>
+        <v>161.5</v>
       </c>
       <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>149.74</v>
+        <v>161.5</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>50</v>
       </c>
       <c r="AG27" t="s">
         <v>48</v>
@@ -5913,70 +5830,42 @@
       <c r="AL27" t="s">
         <v>55</v>
       </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>381</v>
-      </c>
-      <c r="BA27">
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AZ27" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA27" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
         <v>43</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
       </c>
       <c r="L28" t="s">
         <v>44</v>
@@ -5991,19 +5880,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="1">
-        <v>45863</v>
+        <v>45631</v>
       </c>
       <c r="R28" s="1">
+        <v>45911</v>
+      </c>
+      <c r="S28" s="1">
         <v>45913</v>
       </c>
-      <c r="S28" s="1">
-        <v>45919</v>
-      </c>
       <c r="T28" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="U28" t="s">
         <v>48</v>
@@ -6015,7 +5904,7 @@
         <v>49</v>
       </c>
       <c r="X28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -6027,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>-64.5</v>
+        <v>-44.25</v>
       </c>
       <c r="AC28">
-        <v>405</v>
+        <v>280</v>
       </c>
       <c r="AD28">
-        <v>365.5</v>
+        <v>250.75</v>
       </c>
       <c r="AE28">
-        <v>365.5</v>
+        <v>250.75</v>
       </c>
       <c r="AF28" t="s">
         <v>50</v>
@@ -6051,78 +5940,50 @@
         <v>52</v>
       </c>
       <c r="AJ28" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK28" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA28">
+        <v>55</v>
+      </c>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AZ28" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA28" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="H29" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L29" t="s">
         <v>44</v>
@@ -6137,19 +5998,19 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="1">
-        <v>45892</v>
+        <v>45838</v>
       </c>
       <c r="R29" s="1">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="S29" s="1">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="T29" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="U29" t="s">
         <v>48</v>
@@ -6173,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>-32.25</v>
+        <v>-86.25</v>
       </c>
       <c r="AC29">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="AD29">
-        <v>182.75</v>
+        <v>488.75</v>
       </c>
       <c r="AE29">
-        <v>182.75</v>
+        <v>488.75</v>
       </c>
       <c r="AF29" t="s">
         <v>50</v>
@@ -6205,67 +6066,42 @@
       <c r="AL29" t="s">
         <v>55</v>
       </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA29">
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AZ29" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA29" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>419</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
         <v>44</v>
@@ -6277,37 +6113,37 @@
         <v>44</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="Q30" s="1">
-        <v>45785</v>
+        <v>45713</v>
       </c>
       <c r="R30" s="1">
-        <v>45918</v>
+        <v>45913</v>
       </c>
       <c r="S30" s="1">
-        <v>45921</v>
+        <v>45914</v>
       </c>
       <c r="T30" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X30">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -6319,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>345</v>
+        <v>113.4</v>
       </c>
       <c r="AD30">
-        <v>306</v>
+        <v>149.74</v>
       </c>
       <c r="AE30">
-        <v>306</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>149.74</v>
       </c>
       <c r="AG30" t="s">
         <v>48</v>
@@ -6351,67 +6187,41 @@
       <c r="AL30" t="s">
         <v>55</v>
       </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>384</v>
-      </c>
-      <c r="BA30">
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AZ30" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA30" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
         <v>44</v>
@@ -6429,19 +6239,19 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="1">
-        <v>45884</v>
+        <v>45863</v>
       </c>
       <c r="R31" s="1">
-        <v>45918</v>
+        <v>45913</v>
       </c>
       <c r="S31" s="1">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="T31" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="U31" t="s">
         <v>48</v>
@@ -6453,7 +6263,7 @@
         <v>49</v>
       </c>
       <c r="X31">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -6465,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>-59.25</v>
+        <v>-64.5</v>
       </c>
       <c r="AC31">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="AD31">
-        <v>335.75</v>
+        <v>365.5</v>
       </c>
       <c r="AE31">
-        <v>335.75</v>
+        <v>365.5</v>
       </c>
       <c r="AF31" t="s">
         <v>50</v>
@@ -6489,78 +6299,50 @@
         <v>52</v>
       </c>
       <c r="AJ31" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AK31" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AL31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA31">
+        <v>184</v>
+      </c>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AZ31" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA31" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" t="s">
         <v>44</v>
@@ -6575,19 +6357,19 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="1">
-        <v>45852</v>
+        <v>45892</v>
       </c>
       <c r="R32" s="1">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="S32" s="1">
-        <v>45923</v>
+        <v>45917</v>
       </c>
       <c r="T32" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="U32" t="s">
         <v>48</v>
@@ -6599,7 +6381,7 @@
         <v>49</v>
       </c>
       <c r="X32">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -6611,16 +6393,16 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>-48.75</v>
+        <v>-32.25</v>
       </c>
       <c r="AC32">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="AD32">
-        <v>276.25</v>
+        <v>182.75</v>
       </c>
       <c r="AE32">
-        <v>276.25</v>
+        <v>182.75</v>
       </c>
       <c r="AF32" t="s">
         <v>50</v>
@@ -6635,81 +6417,50 @@
         <v>52</v>
       </c>
       <c r="AJ32" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK32" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL32" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA32">
+        <v>55</v>
+      </c>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AZ32" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA32" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" t="s">
-        <v>422</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L33" t="s">
         <v>44</v>
@@ -6718,25 +6469,25 @@
         <v>44</v>
       </c>
       <c r="N33" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="1">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="R33" s="1">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="S33" s="1">
         <v>45921</v>
       </c>
       <c r="T33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="U33" t="s">
         <v>48</v>
@@ -6745,10 +6496,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X33">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -6760,19 +6511,19 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="AC33">
-        <v>113.4</v>
+        <v>345</v>
       </c>
       <c r="AD33">
-        <v>149.74</v>
+        <v>306</v>
       </c>
       <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>149.74</v>
+        <v>306</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>50</v>
       </c>
       <c r="AG33" t="s">
         <v>48</v>
@@ -6792,40 +6543,12 @@
       <c r="AL33" t="s">
         <v>55</v>
       </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA33">
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AZ33" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA33" s="25">
         <v>0</v>
       </c>
     </row>
@@ -6840,22 +6563,22 @@
         <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="J34" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L34" t="s">
         <v>44</v>
@@ -6870,19 +6593,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="1">
-        <v>45816</v>
+        <v>45884</v>
       </c>
       <c r="R34" s="1">
+        <v>45918</v>
+      </c>
+      <c r="S34" s="1">
         <v>45920</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="T34" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="U34" t="s">
         <v>48</v>
@@ -6906,16 +6629,16 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>-32.25</v>
+        <v>-59.25</v>
       </c>
       <c r="AC34">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="AD34">
-        <v>182.75</v>
+        <v>335.75</v>
       </c>
       <c r="AE34">
-        <v>182.75</v>
+        <v>335.75</v>
       </c>
       <c r="AF34" t="s">
         <v>50</v>
@@ -6938,70 +6661,39 @@
       <c r="AL34" t="s">
         <v>55</v>
       </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>388</v>
-      </c>
-      <c r="BA34">
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AZ34" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA34" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>261</v>
-      </c>
-      <c r="F35" t="s">
-        <v>428</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s">
         <v>44</v>
@@ -7013,25 +6705,25 @@
         <v>44</v>
       </c>
       <c r="N35" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="1">
-        <v>45884</v>
+        <v>45852</v>
       </c>
       <c r="R35" s="1">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="S35" s="1">
-        <v>45921</v>
+        <v>45923</v>
       </c>
       <c r="T35" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="U35" t="s">
         <v>48</v>
@@ -7040,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X35">
         <v>25</v>
@@ -7055,19 +6747,19 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-48.75</v>
       </c>
       <c r="AC35">
-        <v>96.39</v>
+        <v>300</v>
       </c>
       <c r="AD35">
-        <v>131.03</v>
+        <v>276.25</v>
       </c>
       <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>131.03</v>
+        <v>276.25</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>50</v>
       </c>
       <c r="AG35" t="s">
         <v>48</v>
@@ -7079,81 +6771,53 @@
         <v>52</v>
       </c>
       <c r="AJ35" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AK35" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AL35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
-        <v>0</v>
-      </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>389</v>
-      </c>
-      <c r="BA35">
+        <v>184</v>
+      </c>
+      <c r="AQ35" s="25"/>
+      <c r="AR35" s="25"/>
+      <c r="AZ35" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA35" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L36" t="s">
         <v>44</v>
@@ -7162,25 +6826,25 @@
         <v>44</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="Q36" s="1">
-        <v>45595</v>
+        <v>45771</v>
       </c>
       <c r="R36" s="1">
+        <v>45920</v>
+      </c>
+      <c r="S36" s="1">
         <v>45921</v>
       </c>
-      <c r="S36" s="1">
-        <v>45927</v>
-      </c>
       <c r="T36" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="U36" t="s">
         <v>48</v>
@@ -7189,10 +6853,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X36">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -7204,19 +6868,19 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>-21.15</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>690</v>
+        <v>113.4</v>
       </c>
       <c r="AD36">
-        <v>683.85</v>
+        <v>149.74</v>
       </c>
       <c r="AE36">
-        <v>683.85</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>149.74</v>
       </c>
       <c r="AG36" t="s">
         <v>48</v>
@@ -7236,73 +6900,44 @@
       <c r="AL36" t="s">
         <v>55</v>
       </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>390</v>
-      </c>
-      <c r="BA36">
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AZ36" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA36" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" t="s">
-        <v>424</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="L37" t="s">
         <v>44</v>
@@ -7311,25 +6946,25 @@
         <v>44</v>
       </c>
       <c r="N37" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="1">
-        <v>45820</v>
+        <v>45816</v>
       </c>
       <c r="R37" s="1">
-        <v>45922</v>
-      </c>
-      <c r="S37" s="1">
-        <v>45924</v>
+        <v>45920</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="T37" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="U37" t="s">
         <v>48</v>
@@ -7338,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X37">
         <v>35</v>
@@ -7353,19 +6988,19 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-32.25</v>
       </c>
       <c r="AC37">
-        <v>320.39999999999998</v>
+        <v>180</v>
       </c>
       <c r="AD37">
-        <v>387.44</v>
+        <v>182.75</v>
       </c>
       <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>387.44</v>
+        <v>182.75</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>50</v>
       </c>
       <c r="AG37" t="s">
         <v>48</v>
@@ -7385,70 +7020,45 @@
       <c r="AL37" t="s">
         <v>55</v>
       </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>391</v>
-      </c>
-      <c r="BA37">
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AZ37" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA37" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>261</v>
+      </c>
+      <c r="F38" t="s">
+        <v>428</v>
       </c>
       <c r="H38" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L38" t="s">
         <v>44</v>
@@ -7457,25 +7067,25 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="Q38" s="1">
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="R38" s="1">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="S38" s="1">
-        <v>45927</v>
+        <v>45921</v>
       </c>
       <c r="T38" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="U38" t="s">
         <v>48</v>
@@ -7484,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X38">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -7499,19 +7109,19 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>-140.25</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>900</v>
+        <v>96.39</v>
       </c>
       <c r="AD38">
-        <v>794.75</v>
+        <v>131.03</v>
       </c>
       <c r="AE38">
-        <v>794.75</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>131.03</v>
       </c>
       <c r="AG38" t="s">
         <v>48</v>
@@ -7531,67 +7141,44 @@
       <c r="AL38" t="s">
         <v>55</v>
       </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
-        <v>0</v>
-      </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>392</v>
-      </c>
-      <c r="BA38">
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AZ38" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="BA38" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
+        <v>417</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K39" t="s">
         <v>44</v>
@@ -7609,19 +7196,19 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="1">
-        <v>45832</v>
+        <v>45595</v>
       </c>
       <c r="R39" s="1">
-        <v>45925</v>
+        <v>45921</v>
       </c>
       <c r="S39" s="1">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="T39" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="U39" t="s">
         <v>48</v>
@@ -7633,7 +7220,7 @@
         <v>49</v>
       </c>
       <c r="X39">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -7645,16 +7232,16 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>-37.5</v>
+        <v>-21.15</v>
       </c>
       <c r="AC39">
-        <v>225</v>
+        <v>690</v>
       </c>
       <c r="AD39">
-        <v>212.5</v>
+        <v>683.85</v>
       </c>
       <c r="AE39">
-        <v>212.5</v>
+        <v>683.85</v>
       </c>
       <c r="AF39" t="s">
         <v>50</v>
@@ -7669,79 +7256,54 @@
         <v>52</v>
       </c>
       <c r="AJ39" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK39" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL39" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>393</v>
-      </c>
-      <c r="BA39">
+        <v>55</v>
+      </c>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AZ39" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="BA39" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>424</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" t="s">
         <v>43</v>
       </c>
-      <c r="K40" t="s">
-        <v>44</v>
-      </c>
       <c r="L40" t="s">
         <v>44</v>
       </c>
@@ -7749,25 +7311,25 @@
         <v>44</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q40" s="1">
-        <v>45821</v>
+        <v>45820</v>
       </c>
       <c r="R40" s="1">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="S40" s="1">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="T40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7776,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X40">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -7791,19 +7353,19 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>-66.75</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>420</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="AD40">
-        <v>378.25</v>
+        <v>387.44</v>
       </c>
       <c r="AE40">
-        <v>378.25</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>387.44</v>
       </c>
       <c r="AG40" t="s">
         <v>48</v>
@@ -7823,74 +7385,45 @@
       <c r="AL40" t="s">
         <v>55</v>
       </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>395</v>
-      </c>
-      <c r="BA40">
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="25"/>
+      <c r="AZ40" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="BA40" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" t="s">
-        <v>426</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="I41" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="J41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" t="s">
         <v>43</v>
       </c>
-      <c r="K41" t="s">
-        <v>86</v>
-      </c>
       <c r="L41" t="s">
         <v>44</v>
       </c>
@@ -7898,25 +7431,25 @@
         <v>44</v>
       </c>
       <c r="N41" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="Q41" s="1">
-        <v>45838</v>
+        <v>45876</v>
       </c>
       <c r="R41" s="1">
+        <v>45922</v>
+      </c>
+      <c r="S41" s="1">
         <v>45927</v>
       </c>
-      <c r="S41" s="1">
-        <v>45931</v>
-      </c>
       <c r="T41" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="U41" t="s">
         <v>48</v>
@@ -7925,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X41">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -7940,19 +7473,19 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-140.25</v>
       </c>
       <c r="AC41">
-        <v>321.57</v>
+        <v>900</v>
       </c>
       <c r="AD41">
-        <v>383.73</v>
+        <v>794.75</v>
       </c>
       <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>383.73</v>
+        <v>794.75</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>50</v>
       </c>
       <c r="AG41" t="s">
         <v>48</v>
@@ -7972,64 +7505,39 @@
       <c r="AL41" t="s">
         <v>55</v>
       </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="s">
-        <v>396</v>
-      </c>
-      <c r="BA41">
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="25"/>
+      <c r="AZ41" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="BA41" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>463</v>
+      </c>
+      <c r="F42" t="s">
+        <v>475</v>
       </c>
       <c r="H42" t="s">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="I42" t="s">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="J42" t="s">
         <v>43</v>
@@ -8044,25 +7552,25 @@
         <v>44</v>
       </c>
       <c r="N42" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>477</v>
       </c>
       <c r="Q42" s="1">
-        <v>45859</v>
+        <v>45901</v>
       </c>
       <c r="R42" s="1">
-        <v>45928</v>
+        <v>45924</v>
       </c>
       <c r="S42" s="1">
         <v>45930</v>
       </c>
       <c r="T42" t="s">
-        <v>214</v>
+        <v>478</v>
       </c>
       <c r="U42" t="s">
         <v>48</v>
@@ -8071,10 +7579,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X42">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -8086,19 +7594,19 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>-26.25</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>150</v>
-      </c>
-      <c r="AD42">
-        <v>148.75</v>
+        <v>918</v>
+      </c>
+      <c r="AD42" s="26">
+        <v>1044.8</v>
       </c>
       <c r="AE42">
-        <v>148.75</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>1044.8</v>
       </c>
       <c r="AG42" t="s">
         <v>48</v>
@@ -8110,81 +7618,49 @@
         <v>52</v>
       </c>
       <c r="AJ42" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK42" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>397</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="25"/>
+      <c r="AR42" s="25"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="H43" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M43" t="s">
         <v>44</v>
@@ -8196,19 +7672,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="Q43" s="1">
-        <v>45729</v>
+        <v>45832</v>
       </c>
       <c r="R43" s="1">
-        <v>45930</v>
+        <v>45925</v>
       </c>
       <c r="S43" s="1">
-        <v>45935</v>
+        <v>45928</v>
       </c>
       <c r="T43" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="U43" t="s">
         <v>48</v>
@@ -8232,16 +7708,16 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>-108.75</v>
+        <v>-37.5</v>
       </c>
       <c r="AC43">
-        <v>700</v>
+        <v>225</v>
       </c>
       <c r="AD43">
-        <v>616.25</v>
+        <v>212.5</v>
       </c>
       <c r="AE43">
-        <v>616.25</v>
+        <v>212.5</v>
       </c>
       <c r="AF43" t="s">
         <v>50</v>
@@ -8256,48 +7732,20 @@
         <v>52</v>
       </c>
       <c r="AJ43" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AK43" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AL43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="s">
-        <v>398</v>
-      </c>
-      <c r="BA43">
+        <v>184</v>
+      </c>
+      <c r="AQ43" s="25"/>
+      <c r="AR43" s="25"/>
+      <c r="AZ43" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="BA43" s="25">
         <v>0</v>
       </c>
     </row>
@@ -8312,22 +7760,19 @@
         <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>429</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>430</v>
-      </c>
-      <c r="F44" t="s">
-        <v>431</v>
+        <v>165</v>
       </c>
       <c r="H44" t="s">
-        <v>432</v>
+        <v>166</v>
       </c>
       <c r="I44" t="s">
-        <v>432</v>
+        <v>166</v>
       </c>
       <c r="J44" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K44" t="s">
         <v>44</v>
@@ -8339,25 +7784,25 @@
         <v>44</v>
       </c>
       <c r="N44" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="Q44" s="1">
-        <v>45900</v>
+        <v>45821</v>
       </c>
       <c r="R44" s="1">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="S44" s="1">
-        <v>45931</v>
+        <v>45929</v>
       </c>
       <c r="T44" t="s">
-        <v>434</v>
+        <v>168</v>
       </c>
       <c r="U44" t="s">
         <v>48</v>
@@ -8366,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X44">
         <v>25</v>
@@ -8381,19 +7826,19 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-66.75</v>
       </c>
       <c r="AC44">
-        <v>96.39</v>
+        <v>420</v>
       </c>
       <c r="AD44">
-        <v>131.03</v>
+        <v>378.25</v>
       </c>
       <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>131.03</v>
+        <v>378.25</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>50</v>
       </c>
       <c r="AG44" t="s">
         <v>48</v>
@@ -8413,79 +7858,620 @@
       <c r="AL44" t="s">
         <v>55</v>
       </c>
-      <c r="AN44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AR44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AV44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AZ44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BA44" t="e">
-        <v>#N/A</v>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
+      <c r="AZ44" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA44" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E45" t="s">
-        <v>461</v>
+        <v>470</v>
+      </c>
+      <c r="F45" t="s">
+        <v>471</v>
+      </c>
+      <c r="H45" t="s">
+        <v>472</v>
+      </c>
+      <c r="I45" t="s">
+        <v>472</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" t="s">
+        <v>44</v>
       </c>
       <c r="N45" t="s">
         <v>76</v>
       </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>45901</v>
+      </c>
       <c r="R45" s="1">
         <v>45926</v>
       </c>
       <c r="S45" s="1">
         <v>45928</v>
       </c>
+      <c r="T45" t="s">
+        <v>474</v>
+      </c>
+      <c r="U45" t="s">
+        <v>48</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>79</v>
+      </c>
+      <c r="X45">
+        <v>25</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>192.78</v>
+      </c>
+      <c r="AD45">
+        <v>237.06</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>237.06</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="25"/>
+      <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
       <c r="D46" t="s">
-        <v>465</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>466</v>
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>426</v>
+      </c>
+      <c r="H46" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" t="s">
+        <v>44</v>
       </c>
       <c r="N46" t="s">
         <v>76</v>
       </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>45838</v>
+      </c>
       <c r="R46" s="1">
-        <v>45924</v>
+        <v>45927</v>
       </c>
       <c r="S46" s="1">
+        <v>45931</v>
+      </c>
+      <c r="T46" t="s">
+        <v>189</v>
+      </c>
+      <c r="U46" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>79</v>
+      </c>
+      <c r="X46">
+        <v>30</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>321.57</v>
+      </c>
+      <c r="AD46">
+        <v>383.73</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>383.73</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AZ46" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="BA46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I47" t="s">
+        <v>212</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>45859</v>
+      </c>
+      <c r="R47" s="1">
+        <v>45928</v>
+      </c>
+      <c r="S47" s="1">
         <v>45930</v>
       </c>
+      <c r="T47" t="s">
+        <v>214</v>
+      </c>
+      <c r="U47" t="s">
+        <v>48</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>49</v>
+      </c>
+      <c r="X47">
+        <v>25</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>-26.25</v>
+      </c>
+      <c r="AC47">
+        <v>150</v>
+      </c>
+      <c r="AD47">
+        <v>148.75</v>
+      </c>
+      <c r="AE47">
+        <v>148.75</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AZ47" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="BA47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>45729</v>
+      </c>
+      <c r="R48" s="1">
+        <v>45930</v>
+      </c>
+      <c r="S48" s="1">
+        <v>45935</v>
+      </c>
+      <c r="T48" t="s">
+        <v>101</v>
+      </c>
+      <c r="U48" t="s">
+        <v>48</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>49</v>
+      </c>
+      <c r="X48">
+        <v>25</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>-108.75</v>
+      </c>
+      <c r="AC48">
+        <v>700</v>
+      </c>
+      <c r="AD48">
+        <v>616.25</v>
+      </c>
+      <c r="AE48">
+        <v>616.25</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ48" s="25"/>
+      <c r="AR48" s="25"/>
+      <c r="AZ48" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>429</v>
+      </c>
+      <c r="E49" t="s">
+        <v>430</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="H49" t="s">
+        <v>432</v>
+      </c>
+      <c r="I49" t="s">
+        <v>432</v>
+      </c>
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" t="s">
+        <v>76</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>45900</v>
+      </c>
+      <c r="R49" s="1">
+        <v>45930</v>
+      </c>
+      <c r="S49" s="1">
+        <v>45931</v>
+      </c>
+      <c r="T49" t="s">
+        <v>434</v>
+      </c>
+      <c r="U49" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>79</v>
+      </c>
+      <c r="X49">
+        <v>25</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>96.39</v>
+      </c>
+      <c r="AD49">
+        <v>131.03</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>131.03</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="25"/>
+      <c r="AR49" s="25"/>
+      <c r="AZ49" s="25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BA49" s="25" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA44" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}"/>
+  <autoFilter ref="A1:BA49" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA49">
+      <sortCondition ref="R1:R49"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/sample_bookings.xlsx
+++ b/sample_bookings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510519A-6614-D242-B242-22C17985C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112824C9-DAEC-3543-BED3-1216650CB561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="507">
   <si>
     <t>Property Internal Name</t>
   </si>
@@ -1436,9 +1436,6 @@
     <t>Chacon</t>
   </si>
   <si>
-    <t>ighh</t>
-  </si>
-  <si>
     <t>TRANSPORTE CHECK-IN</t>
   </si>
   <si>
@@ -1451,6 +1448,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>$0</t>
+  </si>
+  <si>
     <t>Maya</t>
   </si>
   <si>
@@ -1533,6 +1533,36 @@
   </si>
   <si>
     <t xml:space="preserve">9 PM / 21:00 on Wednesday September 3rd </t>
+  </si>
+  <si>
+    <t>SOFA MA:ANA</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Chaparro</t>
+  </si>
+  <si>
+    <t>+886970143738</t>
+  </si>
+  <si>
+    <t>292ca06b-e64c-49d4-b5d1-876721e9d543</t>
+  </si>
+  <si>
+    <t>HMNS9NFE45</t>
+  </si>
+  <si>
+    <t>$-15.3</t>
+  </si>
+  <si>
+    <t>$102</t>
+  </si>
+  <si>
+    <t>$86.7</t>
+  </si>
+  <si>
+    <t>PAGUELO</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1660,30 +1690,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1713,12 +1719,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1748,44 +1769,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2126,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}">
-  <dimension ref="A1:BA49"/>
+  <dimension ref="A1:BA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
+      <selection activeCell="AO26" sqref="AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2148,3724 +2175,3760 @@
     <col min="31" max="38" width="0" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="5.6640625" customWidth="1"/>
-    <col min="41" max="41" width="3.33203125" customWidth="1"/>
-    <col min="42" max="42" width="5.83203125" customWidth="1"/>
-    <col min="43" max="43" width="16" style="47" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="45" max="51" width="10.83203125" style="25"/>
-    <col min="52" max="52" width="39.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="10.83203125" style="25"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" style="43" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="45" max="51" width="10.83203125" style="23"/>
+    <col min="52" max="52" width="39.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:53" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12" t="s">
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="AQ1" s="37" t="s">
+      <c r="AQ1" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="AR1" s="37" t="s">
+      <c r="AR1" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="AS1" s="38" t="s">
+      <c r="AS1" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="AT1" s="38" t="s">
+      <c r="AT1" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="AU1" s="38" t="s">
+      <c r="AU1" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="AV1" s="38" t="s">
+      <c r="AV1" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="AW1" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="AW1" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="AX1" s="38" t="s">
+      <c r="AX1" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="AY1" s="38" t="s">
+      <c r="AY1" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="AZ1" s="39" t="s">
+      <c r="AZ1" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="BA1" s="39" t="s">
+      <c r="BA1" s="52" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:53" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="30" t="s">
+      <c r="K2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="30">
-        <v>0</v>
-      </c>
-      <c r="P2" s="30" t="s">
+      <c r="O2" s="26">
+        <v>0</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="Q2" s="31">
+      <c r="Q2" s="27">
         <v>45841</v>
       </c>
-      <c r="R2" s="31">
+      <c r="R2" s="27">
         <v>45901</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="27">
         <v>45907</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="30">
-        <v>0</v>
-      </c>
-      <c r="W2" s="30" t="s">
+      <c r="V2" s="26">
+        <v>0</v>
+      </c>
+      <c r="W2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="30">
+      <c r="X2" s="26">
         <v>25</v>
       </c>
-      <c r="Y2" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="30">
+      <c r="Y2" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="26">
         <v>-71.25</v>
       </c>
-      <c r="AC2" s="30">
+      <c r="AC2" s="26">
         <v>450</v>
       </c>
-      <c r="AD2" s="30">
+      <c r="AD2" s="26">
         <v>403.75</v>
       </c>
-      <c r="AE2" s="30">
+      <c r="AE2" s="26">
         <v>403.75</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AG2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30" t="s">
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="AQ2" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="40">
+      <c r="AQ2" s="35">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AT2" s="41" t="s">
+      <c r="AT2" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="AU2" s="41" t="s">
+      <c r="AU2" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="AZ2" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="BA2" s="41">
+      <c r="BA2" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="33">
-        <v>0</v>
-      </c>
-      <c r="P3" s="33" t="s">
+      <c r="O3" s="31">
+        <v>0</v>
+      </c>
+      <c r="P3" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="32">
         <v>45877</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="32">
         <v>45901</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="32">
         <v>45902</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="U3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="33">
-        <v>0</v>
-      </c>
-      <c r="W3" s="33" t="s">
+      <c r="U3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="31">
+        <v>0</v>
+      </c>
+      <c r="W3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="33">
+      <c r="X3" s="31">
         <v>35</v>
       </c>
-      <c r="Y3" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="33">
+      <c r="Y3" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="31">
         <v>-32.25</v>
       </c>
-      <c r="AC3" s="33">
+      <c r="AC3" s="31">
         <v>180</v>
       </c>
-      <c r="AD3" s="33">
+      <c r="AD3" s="31">
         <v>182.75</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AE3" s="31">
         <v>182.75</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AG3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="33" t="s">
+      <c r="AJ3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AK3" s="33" t="s">
+      <c r="AK3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" s="33" t="s">
+      <c r="AL3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33" t="s">
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="40">
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="35">
         <v>0.625</v>
       </c>
-      <c r="AR3" s="40">
+      <c r="AR3" s="35">
         <v>0.5625</v>
       </c>
-      <c r="AS3" s="25">
+      <c r="AS3" s="23">
         <v>8</v>
       </c>
-      <c r="AT3" s="25" t="s">
+      <c r="AT3" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="AU3" s="25" t="s">
+      <c r="AU3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" s="25" t="s">
+      <c r="AZ3" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="BA3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="BA3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="27" t="s">
+      <c r="K4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="27">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27" t="s">
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>45900</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <v>45901</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <v>45902</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="U4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="27">
-        <v>0</v>
-      </c>
-      <c r="W4" s="27" t="s">
+      <c r="U4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0</v>
+      </c>
+      <c r="W4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="26">
         <v>30</v>
       </c>
-      <c r="Y4" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="27">
+      <c r="Y4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="26">
         <v>-19.14</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AC4" s="26">
         <v>97.6</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AD4" s="26">
         <v>108.46</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AE4" s="26">
         <v>108.46</v>
       </c>
-      <c r="AF4" s="27" t="s">
+      <c r="AF4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AG4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AG4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AJ4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AK4" s="27" t="s">
+      <c r="AK4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AL4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27" t="s">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AZ4" s="43" t="str">
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AZ4" s="39" t="str">
         <f>CONCATENATE(D4," ",E4," ","Catedral","A","1 al 2")</f>
         <v>Ricaurte Ortiz Blades CatedralA1 al 2</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:53" s="38" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="K5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="35">
-        <v>0</v>
-      </c>
-      <c r="P5" s="35" t="s">
+      <c r="O5" s="33">
+        <v>0</v>
+      </c>
+      <c r="P5" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="34">
         <v>45901</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="34">
         <v>45901</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="34">
         <v>45902</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="V5" s="35">
-        <v>0</v>
-      </c>
-      <c r="W5" s="35" t="s">
+      <c r="V5" s="33">
+        <v>0</v>
+      </c>
+      <c r="W5" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="33">
         <v>25</v>
       </c>
-      <c r="Y5" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="35">
+      <c r="Y5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="33">
         <v>-19.2</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="33">
         <v>103</v>
       </c>
-      <c r="AD5" s="35">
+      <c r="AD5" s="33">
         <v>108.8</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5" s="33">
         <v>108.8</v>
       </c>
-      <c r="AF5" s="35" t="s">
+      <c r="AF5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AG5" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="35" t="s">
+      <c r="AG5" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ5" s="35" t="s">
+      <c r="AJ5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AK5" s="35" t="s">
+      <c r="AK5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" s="35" t="s">
+      <c r="AL5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AZ5" s="42" t="str">
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AZ5" s="38" t="str">
         <f>CONCATENATE(D5," ",E5," ","Jeronimo","A","1 al 2")</f>
         <v>Maria Als JeronimoA1 al 2</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:53" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="L6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <v>45769</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <v>45902</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <v>45904</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="U6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="27">
-        <v>0</v>
-      </c>
-      <c r="W6" s="27" t="s">
+      <c r="U6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="26">
+        <v>0</v>
+      </c>
+      <c r="W6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="27">
+      <c r="X6" s="26">
         <v>25</v>
       </c>
-      <c r="Y6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="27">
+      <c r="Y6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="26">
         <v>226.8</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AD6" s="26">
         <v>274.48</v>
       </c>
-      <c r="AE6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="27">
+      <c r="AE6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="26">
         <v>274.48</v>
       </c>
-      <c r="AG6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="27" t="s">
+      <c r="AG6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AI6" s="27" t="s">
+      <c r="AI6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ6" s="27" t="s">
+      <c r="AJ6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" s="27" t="s">
+      <c r="AK6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL6" s="27" t="s">
+      <c r="AL6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27" t="s">
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26" t="s">
         <v>402</v>
       </c>
       <c r="AO6" s="19"/>
       <c r="AP6" s="19"/>
-      <c r="AQ6" s="44">
+      <c r="AQ6" s="40">
         <v>0.60416666666666663</v>
       </c>
-      <c r="AR6" s="44">
+      <c r="AR6" s="40">
         <v>0.5</v>
       </c>
-      <c r="AS6" s="43">
+      <c r="AS6" s="39">
         <v>3</v>
       </c>
-      <c r="AZ6" s="43" t="s">
+      <c r="AZ6" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="BA6" s="43" t="s">
+      <c r="BA6" s="39" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:53" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="27" t="s">
+      <c r="K7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="27">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27" t="s">
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>45883</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>45902</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>45908</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="U7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="27">
-        <v>0</v>
-      </c>
-      <c r="W7" s="27" t="s">
+      <c r="U7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0</v>
+      </c>
+      <c r="W7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="27">
+      <c r="X7" s="26">
         <v>25</v>
       </c>
-      <c r="Y7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="27">
+      <c r="Y7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="26">
         <v>-117.15</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AC7" s="26">
         <v>756</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="26">
         <v>663.85</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AE7" s="26">
         <v>663.85</v>
       </c>
-      <c r="AF7" s="27" t="s">
+      <c r="AF7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AG7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" s="27" t="s">
+      <c r="AG7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AI7" s="27" t="s">
+      <c r="AI7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ7" s="27" t="s">
+      <c r="AJ7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AK7" s="27" t="s">
+      <c r="AK7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL7" s="27" t="s">
+      <c r="AL7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27" t="s">
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="AQ7" s="44">
+      <c r="AQ7" s="40">
         <v>0.625</v>
       </c>
-      <c r="AR7" s="44">
+      <c r="AR7" s="40">
         <v>0.5</v>
       </c>
-      <c r="AS7" s="43">
+      <c r="AS7" s="39">
         <v>2</v>
       </c>
-      <c r="AT7" s="43" t="s">
+      <c r="AT7" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="AY7" s="43" t="s">
+      <c r="AY7" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="AZ7" s="43" t="s">
+      <c r="AZ7" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="BA7" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="BA7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="27" t="s">
+      <c r="K8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="27">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27" t="s">
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <v>45901</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="27">
         <v>45902</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="27">
         <v>45904</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="U8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="27">
-        <v>0</v>
-      </c>
-      <c r="W8" s="27" t="s">
+      <c r="U8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="26">
+        <v>0</v>
+      </c>
+      <c r="W8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="26">
         <v>35</v>
       </c>
-      <c r="Y8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="27">
+      <c r="Y8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="26">
         <v>-42.75</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="26">
         <v>250</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="26">
         <v>242.25</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="26">
         <v>242.25</v>
       </c>
-      <c r="AF8" s="27" t="s">
+      <c r="AF8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AG8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH8" s="27" t="s">
+      <c r="AG8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ8" s="27" t="s">
+      <c r="AJ8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AK8" s="27" t="s">
+      <c r="AK8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL8" s="27" t="s">
+      <c r="AL8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27" t="s">
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AY8" s="43" t="s">
+      <c r="AQ8" s="40">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AR8" s="40">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AS8" s="39">
+        <v>5</v>
+      </c>
+      <c r="AT8" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="AY8" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="AZ8" s="43" t="s">
+      <c r="AZ8" s="39" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:53" s="38" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="35" t="s">
+      <c r="K9" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="35">
-        <v>0</v>
-      </c>
-      <c r="P9" s="35" t="s">
+      <c r="O9" s="33">
+        <v>0</v>
+      </c>
+      <c r="P9" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="34">
         <v>45902</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="34">
         <v>45902</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="34">
         <v>45903</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="U9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="35">
-        <v>0</v>
-      </c>
-      <c r="W9" s="35" t="s">
+      <c r="U9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="33">
+        <v>0</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="33">
         <v>35</v>
       </c>
-      <c r="Y9" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="35">
+      <c r="Y9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="33">
         <v>-22.05</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9" s="33">
         <v>112</v>
       </c>
-      <c r="AD9" s="35">
+      <c r="AD9" s="33">
         <v>124.95</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9" s="33">
         <v>124.95</v>
       </c>
-      <c r="AF9" s="35" t="s">
+      <c r="AF9" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AG9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH9" s="35" t="s">
+      <c r="AG9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH9" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI9" s="35" t="s">
+      <c r="AI9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ9" s="35" t="s">
+      <c r="AJ9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AK9" s="35" t="s">
+      <c r="AK9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL9" s="35" t="s">
+      <c r="AL9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AZ9" s="43" t="str">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AZ9" s="39" t="str">
         <f>CONCATENATE(D9," ",E9," ","104","A","2 al 3")</f>
         <v>Kurt Jean-Charles 104A2 al 3</v>
       </c>
     </row>
-    <row r="10" spans="1:53" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:53" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="22" t="s">
+      <c r="K10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="29">
         <v>45886</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="29">
         <v>45903</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="29">
         <v>45905</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="U10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="22">
-        <v>0</v>
-      </c>
-      <c r="W10" s="22" t="s">
+      <c r="U10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="28">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="28">
         <v>35</v>
       </c>
-      <c r="Y10" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="22">
+      <c r="Y10" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="28">
         <v>-59.25</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC10" s="28">
         <v>360</v>
       </c>
-      <c r="AD10" s="22">
+      <c r="AD10" s="28">
         <v>335.75</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10" s="28">
         <v>335.75</v>
       </c>
-      <c r="AF10" s="22" t="s">
+      <c r="AF10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AG10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH10" s="22" t="s">
+      <c r="AG10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AI10" s="22" t="s">
+      <c r="AI10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AJ10" s="22" t="s">
+      <c r="AJ10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AK10" s="22" t="s">
+      <c r="AK10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AL10" s="22" t="s">
+      <c r="AL10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22" t="s">
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="45"/>
-      <c r="AZ10" s="41" t="s">
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AZ10" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="BA10" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="BA10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="27" t="s">
+      <c r="K11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="27">
-        <v>0</v>
-      </c>
-      <c r="P11" s="27" t="s">
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <v>45890</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="27">
         <v>45903</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <v>45904</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="27">
-        <v>0</v>
-      </c>
-      <c r="W11" s="27" t="s">
+      <c r="U11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="26">
+        <v>0</v>
+      </c>
+      <c r="W11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X11" s="27">
+      <c r="X11" s="26">
         <v>30</v>
       </c>
-      <c r="Y11" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="27">
+      <c r="Y11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="26">
         <v>-19.93</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AC11" s="26">
         <v>102.87</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="26">
         <v>112.94</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="26">
         <v>112.94</v>
       </c>
-      <c r="AF11" s="27" t="s">
+      <c r="AF11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AG11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH11" s="27" t="s">
+      <c r="AG11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AI11" s="27" t="s">
+      <c r="AI11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AJ11" s="27" t="s">
+      <c r="AJ11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AK11" s="27" t="s">
+      <c r="AK11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AL11" s="27" t="s">
+      <c r="AL11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27" t="s">
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26" t="s">
         <v>402</v>
       </c>
       <c r="AO11" s="18"/>
       <c r="AP11" s="18"/>
-      <c r="AQ11" s="44">
+      <c r="AQ11" s="40">
         <v>0.85</v>
       </c>
-      <c r="AR11" s="44">
+      <c r="AR11" s="40">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AV11" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="AW11" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="AZ11" s="43" t="s">
+      <c r="AV11" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="AW11" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ11" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="BA11" s="43" t="s">
+      <c r="BA11" s="39" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:53" s="38" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="17" t="s">
+      <c r="K12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17" t="s">
+      <c r="O12" s="33">
+        <v>0</v>
+      </c>
+      <c r="P12" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="34">
         <v>45902</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="34">
         <v>45903</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="34">
         <v>45904</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="U12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" s="17">
-        <v>0</v>
-      </c>
-      <c r="W12" s="17" t="s">
+      <c r="U12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="33">
+        <v>0</v>
+      </c>
+      <c r="W12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="33">
         <v>25</v>
       </c>
-      <c r="Y12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="17">
+      <c r="Y12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33">
         <v>63.42</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="33">
         <v>94.76</v>
       </c>
-      <c r="AE12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="17">
+      <c r="AE12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="33">
         <v>94.76</v>
       </c>
-      <c r="AG12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH12" s="17" t="s">
+      <c r="AG12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH12" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AI12" s="17" t="s">
+      <c r="AI12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AV12" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="AZ12" s="42" t="str">
+      <c r="AJ12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="AV12" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ12" s="38" t="str">
         <f>CONCATENATE(D12," ",E12," ","Jeronimo","B","3 al 4 Sep")</f>
         <v>Anna Belfon JeronimoB3 al 4 Sep</v>
       </c>
-      <c r="BA12" s="42" t="s">
+      <c r="BA12" s="38" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="33" t="s">
+      <c r="M13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33" t="s">
+      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="32">
         <v>45701</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="32">
         <v>45904</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="32">
         <v>45906</v>
       </c>
-      <c r="T13" s="33" t="s">
+      <c r="T13" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="U13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" s="33">
-        <v>0</v>
-      </c>
-      <c r="W13" s="33" t="s">
+      <c r="U13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="31">
+        <v>0</v>
+      </c>
+      <c r="W13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="31">
         <v>10</v>
       </c>
-      <c r="Y13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="33">
+      <c r="Y13" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="31">
         <v>-43.5</v>
       </c>
-      <c r="AC13" s="33">
+      <c r="AC13" s="31">
         <v>280</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AD13" s="31">
         <v>246.5</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="31">
         <v>246.5</v>
       </c>
-      <c r="AF13" s="33" t="s">
+      <c r="AF13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AG13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH13" s="33" t="s">
+      <c r="AG13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AI13" s="33" t="s">
+      <c r="AI13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AJ13" s="33" t="s">
+      <c r="AJ13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AK13" s="33" t="s">
+      <c r="AK13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AL13" s="33" t="s">
+      <c r="AL13" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33" t="s">
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="40">
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="35">
         <v>0.625</v>
       </c>
-      <c r="AR13" s="40">
+      <c r="AR13" s="35">
         <v>0.5</v>
       </c>
-      <c r="AS13" s="25">
+      <c r="AS13" s="23">
         <v>7</v>
       </c>
-      <c r="AT13" s="25" t="s">
+      <c r="AT13" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="AU13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="25" t="s">
+      <c r="AU13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="AZ13" s="25" t="s">
+      <c r="AZ13" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="BA13" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="BA13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="38" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="K14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" s="33">
+        <v>0</v>
+      </c>
+      <c r="P14" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="34">
         <v>45824</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="34">
         <v>45904</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="34">
         <v>45906</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="U14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" s="33">
+        <v>0</v>
+      </c>
+      <c r="W14" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="33">
         <v>35</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="Y14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="33">
         <v>320.39999999999998</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="33">
         <v>387.44</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
+      <c r="AE14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="33">
         <v>387.44</v>
       </c>
-      <c r="AG14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AG14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AZ14" s="25" t="s">
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="37">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AR14" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="BA14" s="25">
+      <c r="BA14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="33" t="s">
+      <c r="K15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="33" t="s">
+      <c r="O15" s="31">
+        <v>0</v>
+      </c>
+      <c r="P15" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="32">
         <v>45884</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="32">
         <v>45905</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="32">
         <v>45909</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="U15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" s="33">
-        <v>0</v>
-      </c>
-      <c r="W15" s="33" t="s">
+      <c r="U15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="31">
+        <v>0</v>
+      </c>
+      <c r="W15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="33">
+      <c r="X15" s="31">
         <v>35</v>
       </c>
-      <c r="Y15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="33">
+      <c r="Y15" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="31">
         <v>-113.25</v>
       </c>
-      <c r="AC15" s="33">
+      <c r="AC15" s="31">
         <v>720</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AD15" s="31">
         <v>641.75</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AE15" s="31">
         <v>641.75</v>
       </c>
-      <c r="AF15" s="33" t="s">
+      <c r="AF15" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AG15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH15" s="33" t="s">
+      <c r="AG15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AI15" s="33" t="s">
+      <c r="AI15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AJ15" s="33" t="s">
+      <c r="AJ15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AK15" s="33" t="s">
+      <c r="AK15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AL15" s="33" t="s">
+      <c r="AL15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33" t="s">
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="40">
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="35">
         <v>0.75</v>
       </c>
-      <c r="AR15" s="40">
+      <c r="AR15" s="35">
         <v>0.5</v>
       </c>
-      <c r="AS15" s="25">
+      <c r="AS15" s="23">
         <v>8</v>
       </c>
-      <c r="AT15" s="25" t="s">
+      <c r="AT15" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="AU15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="25" t="s">
+      <c r="AU15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="AZ15" s="25" t="s">
+      <c r="AZ15" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="BA15" s="25">
+      <c r="BA15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E16" t="s">
+        <v>499</v>
+      </c>
+      <c r="H16" t="s">
+        <v>500</v>
+      </c>
+      <c r="I16" t="s">
+        <v>500</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>468</v>
+      </c>
+      <c r="P16" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>45903</v>
+      </c>
+      <c r="R16" s="1">
+        <v>45905</v>
+      </c>
+      <c r="S16" s="1">
+        <v>45906</v>
+      </c>
+      <c r="T16" t="s">
+        <v>502</v>
+      </c>
+      <c r="U16" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" t="s">
+        <v>468</v>
+      </c>
+      <c r="W16" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD16">
+        <v>86.7</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J17" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="33" t="s">
+      <c r="K17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="33">
-        <v>0</v>
-      </c>
-      <c r="P16" s="33" t="s">
+      <c r="O17" s="31">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q17" s="32">
         <v>45669</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R17" s="32">
         <v>45906</v>
       </c>
-      <c r="S16" s="34">
+      <c r="S17" s="32">
         <v>45908</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T17" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" s="33">
-        <v>0</v>
-      </c>
-      <c r="W16" s="33" t="s">
+      <c r="U17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" s="31">
+        <v>0</v>
+      </c>
+      <c r="W17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X17" s="31">
         <v>10</v>
       </c>
-      <c r="Y16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="33">
+      <c r="Y17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="31">
         <v>-34.5</v>
       </c>
-      <c r="AC16" s="33">
+      <c r="AC17" s="31">
         <v>220</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AD17" s="31">
         <v>195.5</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AE17" s="31">
         <v>195.5</v>
       </c>
-      <c r="AF16" s="33" t="s">
+      <c r="AF17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AG16" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH16" s="33" t="s">
+      <c r="AG17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH17" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AI16" s="33" t="s">
+      <c r="AI17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AJ16" s="33" t="s">
+      <c r="AJ17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AK16" s="33" t="s">
+      <c r="AK17" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AL16" s="33" t="s">
+      <c r="AL17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33" t="s">
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="40">
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="35">
         <v>0.65625</v>
       </c>
-      <c r="AR16" s="40">
+      <c r="AR17" s="35">
         <v>0.29166666666666669</v>
       </c>
-      <c r="AS16" s="25">
+      <c r="AS17" s="23">
         <v>3</v>
       </c>
-      <c r="AT16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="50" t="s">
+      <c r="AT17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="AW17" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="AX17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA17" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>45682</v>
+      </c>
+      <c r="R18" s="25">
+        <v>45906</v>
+      </c>
+      <c r="S18" s="25">
+        <v>45908</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" s="18">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>226.8</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>274.48</v>
+      </c>
+      <c r="AE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="18">
+        <v>274.48</v>
+      </c>
+      <c r="AG18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="BA18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" t="s">
+        <v>441</v>
+      </c>
+      <c r="H19" t="s">
+        <v>442</v>
+      </c>
+      <c r="I19" t="s">
+        <v>442</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>45900</v>
+      </c>
+      <c r="R19" s="1">
+        <v>45906</v>
+      </c>
+      <c r="S19" s="1">
+        <v>45907</v>
+      </c>
+      <c r="T19" t="s">
+        <v>444</v>
+      </c>
+      <c r="U19" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19">
+        <v>35</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>-26.58</v>
+      </c>
+      <c r="AC19">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>150.62</v>
+      </c>
+      <c r="AE19">
+        <v>150.62</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="AW16" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="BA16" s="25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
+      <c r="AZ19" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="BA19" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>45865</v>
+      </c>
+      <c r="R20" s="32">
+        <v>45907</v>
+      </c>
+      <c r="S20" s="32">
+        <v>45909</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" s="31">
+        <v>0</v>
+      </c>
+      <c r="W20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20" s="31">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="31">
+        <v>-26.25</v>
+      </c>
+      <c r="AC20" s="31">
+        <v>150</v>
+      </c>
+      <c r="AD20" s="31">
+        <v>148.75</v>
+      </c>
+      <c r="AE20" s="31">
+        <v>148.75</v>
+      </c>
+      <c r="AF20" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK20" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL20" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="35">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="AV20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="BA20" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" t="s">
+        <v>242</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>45879</v>
+      </c>
+      <c r="R21" s="1">
+        <v>45907</v>
+      </c>
+      <c r="S21" s="1">
+        <v>45909</v>
+      </c>
+      <c r="T21" t="s">
+        <v>244</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21">
+        <v>35</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>-53.85</v>
+      </c>
+      <c r="AC21">
+        <v>324</v>
+      </c>
+      <c r="AD21">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="AE21">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ21" s="35">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="31">
+        <v>0</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>45796</v>
+      </c>
+      <c r="R22" s="32">
+        <v>45908</v>
+      </c>
+      <c r="S22" s="32">
+        <v>45910</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" s="31">
+        <v>0</v>
+      </c>
+      <c r="W22" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="X22" s="31">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="31">
+        <v>144.18</v>
+      </c>
+      <c r="AD22" s="31">
+        <v>178.6</v>
+      </c>
+      <c r="AE22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="31">
+        <v>178.6</v>
+      </c>
+      <c r="AG22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH22" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="35">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="AR22" s="35">
+        <v>0.4375</v>
+      </c>
+      <c r="AS22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU22" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="AW22" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="AX22" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>418</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>427</v>
+      </c>
+      <c r="H23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
         <v>76</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>45682</v>
-      </c>
-      <c r="R17" s="1">
-        <v>45906</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>45867</v>
+      </c>
+      <c r="R23" s="1">
         <v>45908</v>
       </c>
-      <c r="T17" t="s">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="S23" s="1">
+        <v>45909</v>
+      </c>
+      <c r="T23" t="s">
+        <v>229</v>
+      </c>
+      <c r="U23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>79</v>
       </c>
-      <c r="X17">
+      <c r="X23">
+        <v>35</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>195.38</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>195.38</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="35">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>45754</v>
+      </c>
+      <c r="R24" s="27">
+        <v>45910</v>
+      </c>
+      <c r="S24" s="27">
+        <v>45912</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="U24" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="26">
+        <v>0</v>
+      </c>
+      <c r="W24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="X24" s="26">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="26">
+        <v>144.18</v>
+      </c>
+      <c r="AD24" s="26">
+        <v>178.6</v>
+      </c>
+      <c r="AE24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="26">
+        <v>178.6</v>
+      </c>
+      <c r="AG24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI24" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO24" s="54"/>
+      <c r="AP24" s="54"/>
+      <c r="AQ24" s="40">
+        <v>0.4375</v>
+      </c>
+      <c r="AR24" s="40">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AS24" s="39">
+        <v>3</v>
+      </c>
+      <c r="AT24" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU24" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>45756</v>
+      </c>
+      <c r="R25" s="25">
+        <v>45910</v>
+      </c>
+      <c r="S25" s="25">
+        <v>45913</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" s="18">
+        <v>0</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25" s="18">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="18">
+        <v>-66</v>
+      </c>
+      <c r="AC25" s="18">
+        <v>420</v>
+      </c>
+      <c r="AD25" s="18">
+        <v>374</v>
+      </c>
+      <c r="AE25" s="18">
+        <v>374</v>
+      </c>
+      <c r="AF25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>45791</v>
+      </c>
+      <c r="R26" s="1">
+        <v>45910</v>
+      </c>
+      <c r="S26" s="1">
+        <v>45913</v>
+      </c>
+      <c r="T26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26">
+        <v>20</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>-54.75</v>
+      </c>
+      <c r="AC26">
+        <v>345</v>
+      </c>
+      <c r="AD26">
+        <v>310.25</v>
+      </c>
+      <c r="AE26">
+        <v>310.25</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ26" s="35">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="31">
+        <v>0</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>45856</v>
+      </c>
+      <c r="R27" s="32">
+        <v>45910</v>
+      </c>
+      <c r="S27" s="32">
+        <v>45913</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="31">
+        <v>0</v>
+      </c>
+      <c r="W27" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="X27" s="31">
         <v>25</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>226.8</v>
-      </c>
-      <c r="AD17">
-        <v>274.48</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>274.48</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="Y27" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="31">
+        <v>-34.130000000000003</v>
+      </c>
+      <c r="AC27" s="31">
+        <v>202.5</v>
+      </c>
+      <c r="AD27" s="31">
+        <v>193.37</v>
+      </c>
+      <c r="AE27" s="31">
+        <v>193.37</v>
+      </c>
+      <c r="AF27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH27" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN17" t="s">
+      <c r="AJ27" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK27" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL27" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="BA17" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H18" t="s">
-        <v>442</v>
-      </c>
-      <c r="I18" t="s">
-        <v>442</v>
-      </c>
-      <c r="J18" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>45900</v>
-      </c>
-      <c r="R18" s="1">
-        <v>45906</v>
-      </c>
-      <c r="S18" s="1">
-        <v>45907</v>
-      </c>
-      <c r="T18" t="s">
-        <v>444</v>
-      </c>
-      <c r="U18" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>49</v>
-      </c>
-      <c r="X18">
-        <v>35</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>-26.58</v>
-      </c>
-      <c r="AC18">
-        <v>142.19999999999999</v>
-      </c>
-      <c r="AD18">
-        <v>150.62</v>
-      </c>
-      <c r="AE18">
-        <v>150.62</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN18" s="25" t="s">
-        <v>468</v>
-      </c>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AZ18" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="BA18" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="33">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="34">
-        <v>45865</v>
-      </c>
-      <c r="R19" s="34">
-        <v>45907</v>
-      </c>
-      <c r="S19" s="34">
-        <v>45909</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="U19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19" s="33">
-        <v>0</v>
-      </c>
-      <c r="W19" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" s="33">
-        <v>25</v>
-      </c>
-      <c r="Y19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="33">
-        <v>-26.25</v>
-      </c>
-      <c r="AC19" s="33">
-        <v>150</v>
-      </c>
-      <c r="AD19" s="33">
-        <v>148.75</v>
-      </c>
-      <c r="AE19" s="33">
-        <v>148.75</v>
-      </c>
-      <c r="AF19" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH19" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI19" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ19" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK19" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL19" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="25">
-        <v>2</v>
-      </c>
-      <c r="AT19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="AV19" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="AY19" s="46"/>
-      <c r="AZ19" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA19" s="25" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" t="s">
-        <v>242</v>
-      </c>
-      <c r="I20" t="s">
-        <v>242</v>
-      </c>
-      <c r="J20" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>45879</v>
-      </c>
-      <c r="R20" s="1">
-        <v>45907</v>
-      </c>
-      <c r="S20" s="1">
-        <v>45909</v>
-      </c>
-      <c r="T20" t="s">
-        <v>244</v>
-      </c>
-      <c r="U20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>49</v>
-      </c>
-      <c r="X20">
-        <v>35</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>-53.85</v>
-      </c>
-      <c r="AC20">
-        <v>324</v>
-      </c>
-      <c r="AD20">
-        <v>305.14999999999998</v>
-      </c>
-      <c r="AE20">
-        <v>305.14999999999998</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>402</v>
-      </c>
-      <c r="AQ20" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="33">
-        <v>0</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="34">
-        <v>45796</v>
-      </c>
-      <c r="R21" s="34">
-        <v>45908</v>
-      </c>
-      <c r="S21" s="34">
-        <v>45910</v>
-      </c>
-      <c r="T21" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="U21" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="V21" s="33">
-        <v>0</v>
-      </c>
-      <c r="W21" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="X21" s="33">
-        <v>20</v>
-      </c>
-      <c r="Y21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="33">
-        <v>144.18</v>
-      </c>
-      <c r="AD21" s="33">
-        <v>178.6</v>
-      </c>
-      <c r="AE21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="33">
-        <v>178.6</v>
-      </c>
-      <c r="AG21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH21" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI21" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="40">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="AR21" s="40">
-        <v>0.4375</v>
-      </c>
-      <c r="AS21" s="25">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="AU21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="AW21" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX21" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="BA21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" t="s">
-        <v>227</v>
-      </c>
-      <c r="J22" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>45867</v>
-      </c>
-      <c r="R22" s="1">
-        <v>45908</v>
-      </c>
-      <c r="S22" s="1">
-        <v>45909</v>
-      </c>
-      <c r="T22" t="s">
-        <v>229</v>
-      </c>
-      <c r="U22" t="s">
-        <v>48</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
-        <v>79</v>
-      </c>
-      <c r="X22">
-        <v>35</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="AD22">
-        <v>195.38</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>195.38</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA22" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="33">
-        <v>0</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q23" s="34">
-        <v>45754</v>
-      </c>
-      <c r="R23" s="34">
-        <v>45910</v>
-      </c>
-      <c r="S23" s="34">
-        <v>45912</v>
-      </c>
-      <c r="T23" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="U23" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="V23" s="33">
-        <v>0</v>
-      </c>
-      <c r="W23" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="X23" s="33">
-        <v>20</v>
-      </c>
-      <c r="Y23" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="33">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="33">
-        <v>144.18</v>
-      </c>
-      <c r="AD23" s="33">
-        <v>178.6</v>
-      </c>
-      <c r="AE23" s="33">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="33">
-        <v>178.6</v>
-      </c>
-      <c r="AG23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH23" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="40">
-        <v>0.4375</v>
-      </c>
-      <c r="AR23" s="40">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="AS23" s="25">
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="35">
+        <v>0.3125</v>
+      </c>
+      <c r="AR27" s="35">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AS27" s="23">
         <v>3</v>
       </c>
-      <c r="AT23" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="AU23" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="BA23" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>45756</v>
-      </c>
-      <c r="R24" s="1">
-        <v>45910</v>
-      </c>
-      <c r="S24" s="1">
-        <v>45913</v>
-      </c>
-      <c r="T24" t="s">
-        <v>115</v>
-      </c>
-      <c r="U24" t="s">
-        <v>48</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>49</v>
-      </c>
-      <c r="X24">
-        <v>20</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>-66</v>
-      </c>
-      <c r="AC24">
-        <v>420</v>
-      </c>
-      <c r="AD24">
-        <v>374</v>
-      </c>
-      <c r="AE24">
-        <v>374</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>402</v>
-      </c>
-      <c r="AQ24" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="BA24" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>45791</v>
-      </c>
-      <c r="R25" s="1">
-        <v>45910</v>
-      </c>
-      <c r="S25" s="1">
-        <v>45913</v>
-      </c>
-      <c r="T25" t="s">
-        <v>144</v>
-      </c>
-      <c r="U25" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
-        <v>49</v>
-      </c>
-      <c r="X25">
-        <v>20</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>-54.75</v>
-      </c>
-      <c r="AC25">
-        <v>345</v>
-      </c>
-      <c r="AD25">
-        <v>310.25</v>
-      </c>
-      <c r="AE25">
-        <v>310.25</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>402</v>
-      </c>
-      <c r="AQ25" s="40">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="BA25" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="33">
-        <v>0</v>
-      </c>
-      <c r="P26" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q26" s="34">
-        <v>45856</v>
-      </c>
-      <c r="R26" s="34">
-        <v>45910</v>
-      </c>
-      <c r="S26" s="34">
-        <v>45913</v>
-      </c>
-      <c r="T26" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="U26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="V26" s="33">
-        <v>0</v>
-      </c>
-      <c r="W26" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="X26" s="33">
-        <v>25</v>
-      </c>
-      <c r="Y26" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="33">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="33">
-        <v>-34.130000000000003</v>
-      </c>
-      <c r="AC26" s="33">
-        <v>202.5</v>
-      </c>
-      <c r="AD26" s="33">
-        <v>193.37</v>
-      </c>
-      <c r="AE26" s="33">
-        <v>193.37</v>
-      </c>
-      <c r="AF26" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI26" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ26" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK26" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL26" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="40">
-        <v>0.3125</v>
-      </c>
-      <c r="AR26" s="40">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="AS26" s="25">
-        <v>3</v>
-      </c>
-      <c r="AT26" s="25" t="s">
+      <c r="AT27" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="AU26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="25" t="s">
+      <c r="AU27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="BA26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" t="s">
-        <v>246</v>
-      </c>
-      <c r="H27" t="s">
-        <v>247</v>
-      </c>
-      <c r="I27" t="s">
-        <v>247</v>
-      </c>
-      <c r="J27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>45882</v>
-      </c>
-      <c r="R27" s="1">
-        <v>45910</v>
-      </c>
-      <c r="S27" s="1">
-        <v>45911</v>
-      </c>
-      <c r="T27" t="s">
-        <v>249</v>
-      </c>
-      <c r="U27" t="s">
-        <v>48</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
-        <v>49</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>-28.5</v>
-      </c>
-      <c r="AC27">
-        <v>190</v>
-      </c>
-      <c r="AD27">
-        <v>161.5</v>
-      </c>
-      <c r="AE27">
-        <v>161.5</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AZ27" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="BA27" s="25">
+      <c r="BA27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L28" t="s">
         <v>44</v>
@@ -5880,19 +5943,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="1">
-        <v>45631</v>
+        <v>45882</v>
       </c>
       <c r="R28" s="1">
+        <v>45910</v>
+      </c>
+      <c r="S28" s="1">
         <v>45911</v>
       </c>
-      <c r="S28" s="1">
-        <v>45913</v>
-      </c>
       <c r="T28" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="U28" t="s">
         <v>48</v>
@@ -5904,7 +5967,7 @@
         <v>49</v>
       </c>
       <c r="X28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -5916,16 +5979,16 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>-44.25</v>
+        <v>-28.5</v>
       </c>
       <c r="AC28">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="AD28">
-        <v>250.75</v>
+        <v>161.5</v>
       </c>
       <c r="AE28">
-        <v>250.75</v>
+        <v>161.5</v>
       </c>
       <c r="AF28" t="s">
         <v>50</v>
@@ -5948,42 +6011,42 @@
       <c r="AL28" t="s">
         <v>55</v>
       </c>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AZ28" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA28" s="25">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AZ28" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA28" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>150</v>
+      <c r="A29" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L29" t="s">
         <v>44</v>
@@ -5998,19 +6061,19 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="1">
-        <v>45838</v>
+        <v>45631</v>
       </c>
       <c r="R29" s="1">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="S29" s="1">
-        <v>45915</v>
+        <v>45913</v>
       </c>
       <c r="T29" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="U29" t="s">
         <v>48</v>
@@ -6022,7 +6085,7 @@
         <v>49</v>
       </c>
       <c r="X29">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -6034,16 +6097,16 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>-86.25</v>
+        <v>-44.25</v>
       </c>
       <c r="AC29">
-        <v>540</v>
+        <v>280</v>
       </c>
       <c r="AD29">
-        <v>488.75</v>
+        <v>250.75</v>
       </c>
       <c r="AE29">
-        <v>488.75</v>
+        <v>250.75</v>
       </c>
       <c r="AF29" t="s">
         <v>50</v>
@@ -6066,42 +6129,39 @@
       <c r="AL29" t="s">
         <v>55</v>
       </c>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AZ29" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA29" s="25">
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AZ29" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA29" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>419</v>
+        <v>191</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s">
         <v>44</v>
@@ -6113,37 +6173,37 @@
         <v>44</v>
       </c>
       <c r="N30" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="1">
-        <v>45713</v>
+        <v>45838</v>
       </c>
       <c r="R30" s="1">
-        <v>45913</v>
+        <v>45912</v>
       </c>
       <c r="S30" s="1">
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="T30" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="U30" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X30">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -6155,19 +6215,19 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-86.25</v>
       </c>
       <c r="AC30">
-        <v>113.4</v>
+        <v>540</v>
       </c>
       <c r="AD30">
-        <v>149.74</v>
+        <v>488.75</v>
       </c>
       <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>149.74</v>
+        <v>488.75</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>50</v>
       </c>
       <c r="AG30" t="s">
         <v>48</v>
@@ -6187,41 +6247,42 @@
       <c r="AL30" t="s">
         <v>55</v>
       </c>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AZ30" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="BA30" s="25">
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AZ30" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA30" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>419</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s">
         <v>44</v>
@@ -6233,34 +6294,34 @@
         <v>44</v>
       </c>
       <c r="N31" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="1">
-        <v>45863</v>
+        <v>45713</v>
       </c>
       <c r="R31" s="1">
         <v>45913</v>
       </c>
       <c r="S31" s="1">
-        <v>45919</v>
+        <v>45914</v>
       </c>
       <c r="T31" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="U31" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X31">
         <v>25</v>
@@ -6275,19 +6336,19 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>-64.5</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>405</v>
+        <v>113.4</v>
       </c>
       <c r="AD31">
-        <v>365.5</v>
+        <v>149.74</v>
       </c>
       <c r="AE31">
-        <v>365.5</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>149.74</v>
       </c>
       <c r="AG31" t="s">
         <v>48</v>
@@ -6299,50 +6360,52 @@
         <v>52</v>
       </c>
       <c r="AJ31" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK31" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL31" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AZ31" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA31" s="25">
+        <v>55</v>
+      </c>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AZ31" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA31" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="H32" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L32" t="s">
         <v>44</v>
@@ -6357,19 +6420,19 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="1">
-        <v>45892</v>
+        <v>45863</v>
       </c>
       <c r="R32" s="1">
-        <v>45916</v>
+        <v>45913</v>
       </c>
       <c r="S32" s="1">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="T32" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="U32" t="s">
         <v>48</v>
@@ -6381,7 +6444,7 @@
         <v>49</v>
       </c>
       <c r="X32">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -6393,16 +6456,16 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>-32.25</v>
+        <v>-64.5</v>
       </c>
       <c r="AC32">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="AD32">
-        <v>182.75</v>
+        <v>365.5</v>
       </c>
       <c r="AE32">
-        <v>182.75</v>
+        <v>365.5</v>
       </c>
       <c r="AF32" t="s">
         <v>50</v>
@@ -6417,50 +6480,50 @@
         <v>52</v>
       </c>
       <c r="AJ32" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AK32" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AL32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AZ32" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA32" s="25">
+        <v>184</v>
+      </c>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AZ32" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA32" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s">
         <v>43</v>
-      </c>
-      <c r="K33" t="s">
-        <v>44</v>
       </c>
       <c r="L33" t="s">
         <v>44</v>
@@ -6475,19 +6538,19 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="Q33" s="1">
-        <v>45785</v>
+        <v>45892</v>
       </c>
       <c r="R33" s="1">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="S33" s="1">
-        <v>45921</v>
+        <v>45917</v>
       </c>
       <c r="T33" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="U33" t="s">
         <v>48</v>
@@ -6499,7 +6562,7 @@
         <v>49</v>
       </c>
       <c r="X33">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -6511,16 +6574,16 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>-54</v>
+        <v>-32.25</v>
       </c>
       <c r="AC33">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="AD33">
-        <v>306</v>
+        <v>182.75</v>
       </c>
       <c r="AE33">
-        <v>306</v>
+        <v>182.75</v>
       </c>
       <c r="AF33" t="s">
         <v>50</v>
@@ -6543,39 +6606,39 @@
       <c r="AL33" t="s">
         <v>55</v>
       </c>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AZ33" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="BA33" s="25">
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AZ33" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA33" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
         <v>44</v>
@@ -6593,19 +6656,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="Q34" s="1">
-        <v>45884</v>
+        <v>45785</v>
       </c>
       <c r="R34" s="1">
         <v>45918</v>
       </c>
       <c r="S34" s="1">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="T34" t="s">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="U34" t="s">
         <v>48</v>
@@ -6617,7 +6680,7 @@
         <v>49</v>
       </c>
       <c r="X34">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -6629,16 +6692,16 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>-59.25</v>
+        <v>-54</v>
       </c>
       <c r="AC34">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="AD34">
-        <v>335.75</v>
+        <v>306</v>
       </c>
       <c r="AE34">
-        <v>335.75</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s">
         <v>50</v>
@@ -6661,39 +6724,39 @@
       <c r="AL34" t="s">
         <v>55</v>
       </c>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="25"/>
-      <c r="AZ34" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA34" s="25">
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AZ34" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA34" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="I35" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
         <v>44</v>
@@ -6711,19 +6774,19 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="Q35" s="1">
-        <v>45852</v>
+        <v>45884</v>
       </c>
       <c r="R35" s="1">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="S35" s="1">
-        <v>45923</v>
+        <v>45920</v>
       </c>
       <c r="T35" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="U35" t="s">
         <v>48</v>
@@ -6735,7 +6798,7 @@
         <v>49</v>
       </c>
       <c r="X35">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -6747,16 +6810,16 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>-48.75</v>
+        <v>-59.25</v>
       </c>
       <c r="AC35">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="AD35">
-        <v>276.25</v>
+        <v>335.75</v>
       </c>
       <c r="AE35">
-        <v>276.25</v>
+        <v>335.75</v>
       </c>
       <c r="AF35" t="s">
         <v>50</v>
@@ -6771,53 +6834,50 @@
         <v>52</v>
       </c>
       <c r="AJ35" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK35" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL35" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ35" s="25"/>
-      <c r="AR35" s="25"/>
-      <c r="AZ35" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA35" s="25">
+        <v>55</v>
+      </c>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AZ35" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA35" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" t="s">
-        <v>422</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L36" t="s">
         <v>44</v>
@@ -6826,25 +6886,25 @@
         <v>44</v>
       </c>
       <c r="N36" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="1">
-        <v>45771</v>
+        <v>45852</v>
       </c>
       <c r="R36" s="1">
-        <v>45920</v>
+        <v>45919</v>
       </c>
       <c r="S36" s="1">
-        <v>45921</v>
+        <v>45923</v>
       </c>
       <c r="T36" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="U36" t="s">
         <v>48</v>
@@ -6853,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X36">
         <v>25</v>
@@ -6868,19 +6928,19 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-48.75</v>
       </c>
       <c r="AC36">
-        <v>113.4</v>
+        <v>300</v>
       </c>
       <c r="AD36">
-        <v>149.74</v>
+        <v>276.25</v>
       </c>
       <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>149.74</v>
+        <v>276.25</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>50</v>
       </c>
       <c r="AG36" t="s">
         <v>48</v>
@@ -6892,173 +6952,183 @@
         <v>52</v>
       </c>
       <c r="AJ36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AZ36" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="18">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>45771</v>
+      </c>
+      <c r="R37" s="25">
+        <v>45920</v>
+      </c>
+      <c r="S37" s="25">
+        <v>45921</v>
+      </c>
+      <c r="T37" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="U37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" s="18">
+        <v>0</v>
+      </c>
+      <c r="W37" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="X37" s="18">
+        <v>25</v>
+      </c>
+      <c r="Y37" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="18">
+        <v>113.4</v>
+      </c>
+      <c r="AD37" s="18">
+        <v>149.74</v>
+      </c>
+      <c r="AE37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="18">
+        <v>149.74</v>
+      </c>
+      <c r="AG37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ37" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AK37" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AL37" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AO36" s="19"/>
-      <c r="AP36" s="19"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AZ36" s="25" t="s">
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="BA36" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K37" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" t="s">
-        <v>44</v>
-      </c>
-      <c r="M37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" t="s">
-        <v>45</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>45816</v>
-      </c>
-      <c r="R37" s="1">
-        <v>45920</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="T37" t="s">
-        <v>158</v>
-      </c>
-      <c r="U37" t="s">
-        <v>48</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37" t="s">
-        <v>49</v>
-      </c>
-      <c r="X37">
-        <v>35</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>-32.25</v>
-      </c>
-      <c r="AC37">
-        <v>180</v>
-      </c>
-      <c r="AD37">
-        <v>182.75</v>
-      </c>
-      <c r="AE37">
-        <v>182.75</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AZ37" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="BA37" s="25">
+      <c r="BA37" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" t="s">
-        <v>428</v>
+        <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L38" t="s">
         <v>44</v>
@@ -7067,16 +7137,16 @@
         <v>44</v>
       </c>
       <c r="N38" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="Q38" s="1">
-        <v>45884</v>
+        <v>45816</v>
       </c>
       <c r="R38" s="1">
         <v>45920</v>
@@ -7085,7 +7155,7 @@
         <v>45921</v>
       </c>
       <c r="T38" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="U38" t="s">
         <v>48</v>
@@ -7094,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X38">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -7109,19 +7179,19 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-32.25</v>
       </c>
       <c r="AC38">
-        <v>96.39</v>
+        <v>180</v>
       </c>
       <c r="AD38">
-        <v>131.03</v>
+        <v>182.75</v>
       </c>
       <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>131.03</v>
+        <v>182.75</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>50</v>
       </c>
       <c r="AG38" t="s">
         <v>48</v>
@@ -7141,41 +7211,39 @@
       <c r="AL38" t="s">
         <v>55</v>
       </c>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="19"/>
-      <c r="AQ38" s="25"/>
-      <c r="AR38" s="25"/>
-      <c r="AZ38" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="BA38" s="25">
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
+      <c r="AZ38" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA38" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="F39" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
@@ -7190,25 +7258,25 @@
         <v>44</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="Q39" s="1">
-        <v>45595</v>
+        <v>45884</v>
       </c>
       <c r="R39" s="1">
+        <v>45920</v>
+      </c>
+      <c r="S39" s="1">
         <v>45921</v>
       </c>
-      <c r="S39" s="1">
-        <v>45927</v>
-      </c>
       <c r="T39" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="U39" t="s">
         <v>48</v>
@@ -7217,10 +7285,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X39">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -7232,19 +7300,19 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>-21.15</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>690</v>
+        <v>96.39</v>
       </c>
       <c r="AD39">
-        <v>683.85</v>
+        <v>131.03</v>
       </c>
       <c r="AE39">
-        <v>683.85</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>131.03</v>
       </c>
       <c r="AG39" t="s">
         <v>48</v>
@@ -7264,45 +7332,47 @@
       <c r="AL39" t="s">
         <v>55</v>
       </c>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="25"/>
-      <c r="AZ39" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="BA39" s="25">
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AZ39" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="BA39" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>56</v>
+      <c r="A40" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L40" t="s">
         <v>44</v>
@@ -7311,25 +7381,25 @@
         <v>44</v>
       </c>
       <c r="N40" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="Q40" s="1">
-        <v>45820</v>
+        <v>45595</v>
       </c>
       <c r="R40" s="1">
-        <v>45922</v>
+        <v>45921</v>
       </c>
       <c r="S40" s="1">
-        <v>45924</v>
+        <v>45927</v>
       </c>
       <c r="T40" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="U40" t="s">
         <v>48</v>
@@ -7338,10 +7408,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X40">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -7353,19 +7423,19 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-21.15</v>
       </c>
       <c r="AC40">
-        <v>320.39999999999998</v>
+        <v>690</v>
       </c>
       <c r="AD40">
-        <v>387.44</v>
+        <v>683.85</v>
       </c>
       <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>387.44</v>
+        <v>683.85</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>50</v>
       </c>
       <c r="AG40" t="s">
         <v>48</v>
@@ -7385,38 +7455,39 @@
       <c r="AL40" t="s">
         <v>55</v>
       </c>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AZ40" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="BA40" s="25">
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AZ40" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="BA40" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>424</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="I41" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
         <v>62</v>
@@ -7431,25 +7502,25 @@
         <v>44</v>
       </c>
       <c r="N41" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="Q41" s="1">
-        <v>45876</v>
+        <v>45820</v>
       </c>
       <c r="R41" s="1">
         <v>45922</v>
       </c>
       <c r="S41" s="1">
-        <v>45927</v>
+        <v>45924</v>
       </c>
       <c r="T41" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="U41" t="s">
         <v>48</v>
@@ -7458,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X41">
         <v>35</v>
@@ -7473,19 +7544,19 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>-140.25</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>900</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="AD41">
-        <v>794.75</v>
+        <v>387.44</v>
       </c>
       <c r="AE41">
-        <v>794.75</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>387.44</v>
       </c>
       <c r="AG41" t="s">
         <v>48</v>
@@ -7505,46 +7576,45 @@
       <c r="AL41" t="s">
         <v>55</v>
       </c>
-      <c r="AQ41" s="25"/>
-      <c r="AR41" s="25"/>
-      <c r="AZ41" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="BA41" s="25">
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="23"/>
+      <c r="AZ41" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="BA41" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>463</v>
-      </c>
-      <c r="F42" t="s">
-        <v>475</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>476</v>
+        <v>232</v>
       </c>
       <c r="I42" t="s">
-        <v>476</v>
+        <v>232</v>
       </c>
       <c r="J42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" t="s">
         <v>43</v>
       </c>
-      <c r="K42" t="s">
-        <v>44</v>
-      </c>
       <c r="L42" t="s">
         <v>44</v>
       </c>
@@ -7552,25 +7622,25 @@
         <v>44</v>
       </c>
       <c r="N42" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>477</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="1">
-        <v>45901</v>
+        <v>45876</v>
       </c>
       <c r="R42" s="1">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="S42" s="1">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="T42" t="s">
-        <v>478</v>
+        <v>234</v>
       </c>
       <c r="U42" t="s">
         <v>48</v>
@@ -7579,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X42">
         <v>35</v>
@@ -7594,19 +7664,19 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>-140.25</v>
       </c>
       <c r="AC42">
-        <v>918</v>
-      </c>
-      <c r="AD42" s="26">
-        <v>1044.8</v>
+        <v>900</v>
+      </c>
+      <c r="AD42">
+        <v>794.75</v>
       </c>
       <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="26">
-        <v>1044.8</v>
+        <v>794.75</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>50</v>
       </c>
       <c r="AG42" t="s">
         <v>48</v>
@@ -7626,35 +7696,42 @@
       <c r="AL42" t="s">
         <v>55</v>
       </c>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="19"/>
-      <c r="AQ42" s="25"/>
-      <c r="AR42" s="25"/>
+      <c r="AQ42" s="23"/>
+      <c r="AR42" s="23"/>
+      <c r="AZ42" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="BA42" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>463</v>
+      </c>
+      <c r="F43" t="s">
+        <v>475</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="J43" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K43" t="s">
         <v>44</v>
@@ -7666,25 +7743,25 @@
         <v>44</v>
       </c>
       <c r="N43" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="Q43" s="1">
-        <v>45832</v>
+        <v>45901</v>
       </c>
       <c r="R43" s="1">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="S43" s="1">
-        <v>45928</v>
+        <v>45930</v>
       </c>
       <c r="T43" t="s">
-        <v>181</v>
+        <v>478</v>
       </c>
       <c r="U43" t="s">
         <v>48</v>
@@ -7693,10 +7770,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X43">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -7708,19 +7785,19 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>225</v>
-      </c>
-      <c r="AD43">
-        <v>212.5</v>
+        <v>918</v>
+      </c>
+      <c r="AD43" s="24">
+        <v>1044.8</v>
       </c>
       <c r="AE43">
-        <v>212.5</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="24">
+        <v>1044.8</v>
       </c>
       <c r="AG43" t="s">
         <v>48</v>
@@ -7732,47 +7809,43 @@
         <v>52</v>
       </c>
       <c r="AJ43" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK43" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL43" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ43" s="25"/>
-      <c r="AR43" s="25"/>
-      <c r="AZ43" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="BA43" s="25">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H44" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I44" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K44" t="s">
         <v>44</v>
@@ -7790,19 +7863,19 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="1">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="R44" s="1">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="S44" s="1">
-        <v>45929</v>
+        <v>45928</v>
       </c>
       <c r="T44" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="U44" t="s">
         <v>48</v>
@@ -7826,16 +7899,16 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>-66.75</v>
+        <v>-37.5</v>
       </c>
       <c r="AC44">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="AD44">
-        <v>378.25</v>
+        <v>212.5</v>
       </c>
       <c r="AE44">
-        <v>378.25</v>
+        <v>212.5</v>
       </c>
       <c r="AF44" t="s">
         <v>50</v>
@@ -7850,50 +7923,47 @@
         <v>52</v>
       </c>
       <c r="AJ44" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AK44" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AL44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ44" s="25"/>
-      <c r="AR44" s="25"/>
-      <c r="AZ44" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="BA44" s="25">
+        <v>184</v>
+      </c>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AZ44" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="BA44" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>469</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>470</v>
-      </c>
-      <c r="F45" t="s">
-        <v>471</v>
+        <v>165</v>
       </c>
       <c r="H45" t="s">
-        <v>472</v>
+        <v>166</v>
       </c>
       <c r="I45" t="s">
-        <v>472</v>
+        <v>166</v>
       </c>
       <c r="J45" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s">
         <v>44</v>
@@ -7905,25 +7975,25 @@
         <v>44</v>
       </c>
       <c r="N45" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>473</v>
+        <v>167</v>
       </c>
       <c r="Q45" s="1">
-        <v>45901</v>
+        <v>45821</v>
       </c>
       <c r="R45" s="1">
         <v>45926</v>
       </c>
       <c r="S45" s="1">
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="T45" t="s">
-        <v>474</v>
+        <v>168</v>
       </c>
       <c r="U45" t="s">
         <v>48</v>
@@ -7932,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X45">
         <v>25</v>
@@ -7947,73 +8017,77 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-66.75</v>
       </c>
       <c r="AC45">
-        <v>192.78</v>
+        <v>420</v>
       </c>
       <c r="AD45">
-        <v>237.06</v>
+        <v>378.25</v>
       </c>
       <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>237.06</v>
+        <v>378.25</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>50</v>
       </c>
       <c r="AG45" t="s">
         <v>48</v>
       </c>
       <c r="AH45" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s">
         <v>52</v>
       </c>
       <c r="AJ45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AK45" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AL45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="19"/>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AZ45" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA45" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>469</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>470</v>
       </c>
       <c r="F46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L46" t="s">
         <v>44</v>
@@ -8028,19 +8102,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>473</v>
       </c>
       <c r="Q46" s="1">
-        <v>45838</v>
+        <v>45901</v>
       </c>
       <c r="R46" s="1">
-        <v>45927</v>
+        <v>45926</v>
       </c>
       <c r="S46" s="1">
-        <v>45931</v>
+        <v>45928</v>
       </c>
       <c r="T46" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="U46" t="s">
         <v>48</v>
@@ -8052,7 +8126,7 @@
         <v>79</v>
       </c>
       <c r="X46">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -8067,73 +8141,70 @@
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>321.57</v>
+        <v>192.78</v>
       </c>
       <c r="AD46">
-        <v>383.73</v>
+        <v>237.06</v>
       </c>
       <c r="AE46">
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>383.73</v>
+        <v>237.06</v>
       </c>
       <c r="AG46" t="s">
         <v>48</v>
       </c>
       <c r="AH46" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AI46" t="s">
         <v>52</v>
       </c>
       <c r="AJ46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AK46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AL46" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO46" s="19"/>
       <c r="AP46" s="19"/>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="25"/>
-      <c r="AZ46" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="BA46" s="25">
-        <v>0</v>
-      </c>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>186</v>
+      </c>
+      <c r="F47" t="s">
+        <v>426</v>
       </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="I47" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L47" t="s">
         <v>44</v>
@@ -8142,25 +8213,25 @@
         <v>44</v>
       </c>
       <c r="N47" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="Q47" s="1">
-        <v>45859</v>
+        <v>45838</v>
       </c>
       <c r="R47" s="1">
-        <v>45928</v>
+        <v>45927</v>
       </c>
       <c r="S47" s="1">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="T47" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="U47" t="s">
         <v>48</v>
@@ -8169,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X47">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -8184,19 +8255,19 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>-26.25</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>150</v>
+        <v>321.57</v>
       </c>
       <c r="AD47">
-        <v>148.75</v>
+        <v>383.73</v>
       </c>
       <c r="AE47">
-        <v>148.75</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>383.73</v>
       </c>
       <c r="AG47" t="s">
         <v>48</v>
@@ -8208,53 +8279,55 @@
         <v>52</v>
       </c>
       <c r="AJ47" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="AK47" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="AL47" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ47" s="25"/>
-      <c r="AR47" s="25"/>
-      <c r="AZ47" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="BA47" s="25">
+        <v>55</v>
+      </c>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AZ47" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="BA47" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L48" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M48" t="s">
         <v>44</v>
@@ -8266,19 +8339,19 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="Q48" s="1">
-        <v>45729</v>
+        <v>45859</v>
       </c>
       <c r="R48" s="1">
+        <v>45928</v>
+      </c>
+      <c r="S48" s="1">
         <v>45930</v>
       </c>
-      <c r="S48" s="1">
-        <v>45935</v>
-      </c>
       <c r="T48" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="U48" t="s">
         <v>48</v>
@@ -8302,16 +8375,16 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>-108.75</v>
+        <v>-26.25</v>
       </c>
       <c r="AC48">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="AD48">
-        <v>616.25</v>
+        <v>148.75</v>
       </c>
       <c r="AE48">
-        <v>616.25</v>
+        <v>148.75</v>
       </c>
       <c r="AF48" t="s">
         <v>50</v>
@@ -8326,80 +8399,77 @@
         <v>52</v>
       </c>
       <c r="AJ48" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="AK48" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="AL48" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ48" s="25"/>
-      <c r="AR48" s="25"/>
-      <c r="AZ48" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="BA48" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
+      <c r="AZ48" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="BA48" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>430</v>
-      </c>
-      <c r="F49" t="s">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L49" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
         <v>44</v>
       </c>
       <c r="N49" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="1">
-        <v>45900</v>
+        <v>45729</v>
       </c>
       <c r="R49" s="1">
         <v>45930</v>
       </c>
       <c r="S49" s="1">
-        <v>45931</v>
+        <v>45935</v>
       </c>
       <c r="T49" t="s">
-        <v>434</v>
+        <v>101</v>
       </c>
       <c r="U49" t="s">
         <v>48</v>
@@ -8408,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="X49">
         <v>25</v>
@@ -8423,19 +8493,19 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>-108.75</v>
       </c>
       <c r="AC49">
-        <v>96.39</v>
+        <v>700</v>
       </c>
       <c r="AD49">
-        <v>131.03</v>
+        <v>616.25</v>
       </c>
       <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>131.03</v>
+        <v>616.25</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>50</v>
       </c>
       <c r="AG49" t="s">
         <v>48</v>
@@ -8455,21 +8525,149 @@
       <c r="AL49" t="s">
         <v>55</v>
       </c>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="19"/>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="25"/>
-      <c r="AZ49" s="25" t="e">
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AZ49" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA49" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" t="s">
+        <v>430</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="H50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>45900</v>
+      </c>
+      <c r="R50" s="1">
+        <v>45930</v>
+      </c>
+      <c r="S50" s="1">
+        <v>45931</v>
+      </c>
+      <c r="T50" t="s">
+        <v>434</v>
+      </c>
+      <c r="U50" t="s">
+        <v>48</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>79</v>
+      </c>
+      <c r="X50">
+        <v>25</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>96.39</v>
+      </c>
+      <c r="AD50">
+        <v>131.03</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>131.03</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO50" s="19"/>
+      <c r="AP50" s="19"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="23"/>
+      <c r="AS50" s="23"/>
+      <c r="AT50" s="23"/>
+      <c r="AU50" s="23"/>
+      <c r="AV50" s="23"/>
+      <c r="AW50" s="23"/>
+      <c r="AX50" s="23"/>
+      <c r="AY50" s="23"/>
+      <c r="AZ50" s="23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="BA49" s="25" t="e">
+      <c r="BA50" s="23" t="e">
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:BA49" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA49">
-      <sortCondition ref="R1:R49"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA50">
+      <sortCondition ref="R1:R50"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample_bookings.xlsx
+++ b/sample_bookings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA1D18-1D29-9443-85A2-7ED1DB8B8159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB05B0E-A179-9445-A431-67B1567AFA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Sept" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="520">
   <si>
     <t>Property Internal Name</t>
   </si>
@@ -1772,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1838,6 +1838,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2451,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301856C-47B8-C247-AED1-D23B4C429C73}">
   <dimension ref="A1:BB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4404,6 +4406,9 @@
       <c r="AY14" s="40" t="s">
         <v>411</v>
       </c>
+      <c r="AZ14" s="40" t="s">
+        <v>461</v>
+      </c>
       <c r="BA14" s="40" t="s">
         <v>367</v>
       </c>
@@ -4533,115 +4538,119 @@
       </c>
     </row>
     <row r="16" spans="1:54" s="17" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="17" t="s">
+      <c r="K16" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="R16" s="39">
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48">
         <v>45905</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="48">
         <v>45905</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="48">
         <v>45907</v>
       </c>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="47" t="s">
         <v>512</v>
       </c>
-      <c r="V16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="W16" s="17" t="s">
+      <c r="V16" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="X16" s="17" t="s">
+      <c r="X16" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Y16" s="17" t="s">
+      <c r="Y16" s="47" t="s">
         <v>513</v>
       </c>
-      <c r="Z16" s="17" t="s">
+      <c r="Z16" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AA16" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="AB16" s="17" t="s">
+      <c r="AB16" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="AC16" s="17" t="s">
+      <c r="AC16" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="AD16" s="17" t="s">
+      <c r="AD16" s="47" t="s">
         <v>515</v>
       </c>
-      <c r="AE16" s="17">
+      <c r="AE16" s="47">
         <v>195.5</v>
       </c>
-      <c r="AF16" s="17" t="s">
+      <c r="AF16" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="AG16" s="17" t="s">
+      <c r="AG16" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AH16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI16" s="17" t="s">
+      <c r="AH16" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="AJ16" s="17" t="s">
+      <c r="AJ16" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AK16" s="17" t="s">
+      <c r="AK16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="AL16" s="17" t="s">
+      <c r="AL16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AM16" s="17" t="s">
+      <c r="AM16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AO16" s="17" t="s">
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47" t="s">
         <v>402</v>
       </c>
       <c r="BA16" s="40" t="str">
@@ -4952,128 +4961,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:54" s="17" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="L19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Q19" s="17" t="str">
         <f>VLOOKUP(P19,[1]Data!$Q:$Q,1,0)</f>
         <v>2f8c561d-f96c-4b79-8aa6-245a71e0dfdd</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="39">
         <v>45900</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="39">
         <v>45906</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="39">
         <v>45907</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="V19" t="s">
-        <v>48</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="V19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" s="17">
+        <v>0</v>
+      </c>
+      <c r="X19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="17">
         <v>35</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="Z19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
         <v>-26.58</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="17">
         <v>142.19999999999999</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="17">
         <v>150.62</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="17">
         <v>150.62</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AH19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AH19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AL19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AM19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="BA19" t="s">
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="BA19" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="BB19" t="e">
+      <c r="BB19" s="17" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -5225,147 +5234,147 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:54" s="17" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="K21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="Q21" s="17" t="str">
         <f>VLOOKUP(P21,[1]Data!$Q:$Q,1,0)</f>
         <v>f7a254ed-4efd-4977-a8f3-dc49c463faf4</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="39">
         <v>45879</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="39">
         <v>45907</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="39">
         <v>45909</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="V21" t="s">
-        <v>48</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="V21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="17">
         <v>35</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="Z21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="17">
         <v>-53.85</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="17">
         <v>324</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="17">
         <v>305.14999999999998</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="17">
         <v>305.14999999999998</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AH21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AH21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AJ21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AK21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AL21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AM21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AO21" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="AR21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="s">
+      <c r="AR21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="BB21">
+      <c r="BB21" s="17">
         <v>0</v>
       </c>
     </row>
